--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_12.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>480499.7470222878</v>
+        <v>480499.7470222877</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006068</v>
+        <v>18327015.93006066</v>
       </c>
     </row>
     <row r="9">
@@ -668,64 +668,64 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R2" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S2" t="n">
+        <v>58.39471844666277</v>
+      </c>
+      <c r="T2" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="U2" t="n">
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>4.580549094716531</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>39.82778746869526</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -914,10 +914,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
         <v>241.0142888776591</v>
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -987,13 +987,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>103.2710348542698</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,25 +1023,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>83.12218148371487</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281241</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>230.8744955960827</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I8" t="n">
-        <v>90.38893773807641</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1175,25 +1175,25 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1209,31 +1209,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>45.28887413297245</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>37.18582309281558</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1379,19 +1379,19 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1415,16 +1415,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>120.9273370453295</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>3.833957768458675</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1616,19 +1616,19 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>80.33470701582003</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1652,16 +1652,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1686,10 +1686,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D15" t="n">
-        <v>21.0507685937734</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1853,16 +1853,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>220.8837963815379</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -1889,19 +1889,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>90.38893773807641</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1938,7 +1938,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>89.39663285141508</v>
@@ -1980,7 +1980,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>35.00246782997241</v>
+        <v>147.2379120664689</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2044,10 +2044,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2087,22 +2087,22 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>230.8744955960827</v>
+      </c>
+      <c r="G20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2126,19 +2126,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>80.33470701582003</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2157,31 +2157,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>64.2562736035707</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>43.33517205040124</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2220,13 +2220,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -2360,31 +2360,31 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>40.47627913313517</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2412,13 +2412,13 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>30.95184914057959</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,28 +2442,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>209.7723503089189</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2552,76 +2552,76 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C26" t="n">
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R26" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>52.42556848774752</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2640,19 +2640,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>66.11308644497873</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -2682,25 +2682,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>29.14270706479791</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2755,10 +2755,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>47.02492433367365</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2792,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2804,7 +2804,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>72.47049842454874</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>241.0142888776591</v>
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2834,13 +2834,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2849,13 +2849,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2868,10 +2868,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>91.00671443664322</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2889,10 +2889,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,25 +2916,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>94.48766447978133</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -2992,10 +2992,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3029,73 +3029,73 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
+      <c r="W32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I32" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>33.80371536444976</v>
-      </c>
-      <c r="S32" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
     </row>
     <row r="33">
@@ -3126,10 +3126,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>49.31110394229523</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,16 +3153,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>135.4141600157168</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3171,10 +3171,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3205,13 +3205,13 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>241.0142888776591</v>
@@ -3329,7 +3329,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3345,16 +3345,16 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>117.8074216906838</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
@@ -3390,16 +3390,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>123.6003327477366</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3500,19 +3500,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3582,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>55.57566235103577</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3627,25 +3627,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>4.580549094716531</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3700,13 +3700,13 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3718,7 +3718,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3737,76 +3737,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C41" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
+      <c r="Y41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3837,10 +3837,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3864,28 +3864,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>29.1427070647978</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>147.9845033927267</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3907,43 +3907,43 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3983,13 +3983,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4028,10 +4028,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4040,10 +4040,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
     </row>
     <row r="45">
@@ -4068,16 +4068,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>74.0428859370281</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4107,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>225.9413820809748</v>
@@ -4116,13 +4116,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="46">
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C2" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D2" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E2" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4349,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>743.5980286395683</v>
       </c>
       <c r="T2" t="n">
-        <v>749.627473042513</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="U2" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="V2" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W2" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X2" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y2" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="3">
@@ -4410,46 +4410,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N3" t="n">
-        <v>613.2059550252818</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O3" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>259.0600686093459</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V3" t="n">
-        <v>23.90796037760316</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W3" t="n">
-        <v>19.28114311021272</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X3" t="n">
-        <v>19.28114311021272</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y3" t="n">
         <v>19.28114311021272</v>
@@ -4483,7 +4483,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="I4" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
         <v>19.28114311021272</v>
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C5" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D5" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4595,22 +4595,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>738.7078125165641</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X5" t="n">
-        <v>495.259035872464</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y5" t="n">
-        <v>251.810259228364</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>327.2640844659515</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C6" t="n">
-        <v>327.2640844659515</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>327.2640844659515</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>327.2640844659515</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>327.2640844659515</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
         <v>19.28114311021272</v>
@@ -4647,22 +4647,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>65.60123993063803</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M6" t="n">
-        <v>304.2053859195205</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4671,25 +4671,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>562.4161926976942</v>
+        <v>880.0953560321364</v>
       </c>
       <c r="V6" t="n">
-        <v>327.2640844659515</v>
+        <v>644.9432478003937</v>
       </c>
       <c r="W6" t="n">
-        <v>327.2640844659515</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="X6" t="n">
-        <v>327.2640844659515</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="Y6" t="n">
-        <v>327.2640844659515</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I7" t="n">
         <v>136.0777814360265</v>
@@ -4741,34 +4741,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>122.6530896684844</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C8" t="n">
-        <v>122.6530896684844</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D8" t="n">
-        <v>122.6530896684844</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E8" t="n">
-        <v>122.6530896684844</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F8" t="n">
-        <v>122.6530896684844</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G8" t="n">
-        <v>122.6530896684844</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H8" t="n">
-        <v>122.6530896684844</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4823,31 +4823,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>122.6530896684844</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X8" t="n">
-        <v>122.6530896684844</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y8" t="n">
-        <v>122.6530896684844</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>862.8876260635219</v>
+        <v>380.2300195200815</v>
       </c>
       <c r="C9" t="n">
-        <v>817.1412885554689</v>
+        <v>205.7769902389545</v>
       </c>
       <c r="D9" t="n">
-        <v>668.2068788942177</v>
+        <v>56.84258057770322</v>
       </c>
       <c r="E9" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N9" t="n">
-        <v>712.019119383956</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>862.8876260635219</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="Y9" t="n">
-        <v>862.8876260635219</v>
+        <v>548.4453565401495</v>
       </c>
     </row>
     <row r="10">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>243.9530410142718</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C11" t="n">
-        <v>243.9530410142718</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D11" t="n">
-        <v>243.9530410142718</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="E11" t="n">
-        <v>243.9530410142718</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="F11" t="n">
-        <v>243.9530410142718</v>
+        <v>710.516763498309</v>
       </c>
       <c r="G11" t="n">
-        <v>243.9530410142718</v>
+        <v>467.067986854209</v>
       </c>
       <c r="H11" t="n">
-        <v>243.9530410142718</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="I11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5063,28 +5063,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S11" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T11" t="n">
-        <v>366.1018663125844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U11" t="n">
-        <v>243.9530410142718</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V11" t="n">
-        <v>243.9530410142718</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W11" t="n">
-        <v>243.9530410142718</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X11" t="n">
-        <v>243.9530410142718</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y11" t="n">
-        <v>243.9530410142718</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
@@ -5127,16 +5127,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N12" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O12" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P12" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
@@ -5157,13 +5157,13 @@
         <v>23.90796037760316</v>
       </c>
       <c r="W12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="13">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>100.4273118130612</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C14" t="n">
-        <v>100.4273118130612</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D14" t="n">
-        <v>100.4273118130612</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E14" t="n">
-        <v>100.4273118130612</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F14" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G14" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H14" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I14" t="n">
-        <v>19.28114311021272</v>
+        <v>21.10891692136039</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5300,28 +5300,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S14" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T14" t="n">
-        <v>587.3248651012614</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U14" t="n">
-        <v>343.8760884571613</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V14" t="n">
-        <v>343.8760884571613</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W14" t="n">
-        <v>343.8760884571613</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X14" t="n">
-        <v>100.4273118130612</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y14" t="n">
-        <v>100.4273118130612</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="15">
@@ -5331,10 +5331,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C15" t="n">
-        <v>689.4702815141908</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D15" t="n">
         <v>668.2068788942177</v>
@@ -5361,10 +5361,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>19.28114311021272</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M15" t="n">
-        <v>234.810827406191</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N15" t="n">
         <v>473.4149733950735</v>
@@ -5379,28 +5379,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V15" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W15" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X15" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y15" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="16">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.35113235729608</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C17" t="n">
-        <v>31.35113235729608</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D17" t="n">
-        <v>31.35113235729608</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="E17" t="n">
-        <v>31.35113235729608</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="F17" t="n">
-        <v>31.35113235729608</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G17" t="n">
-        <v>31.35113235729608</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H17" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I17" t="n">
         <v>31.35113235729608</v>
@@ -5537,28 +5537,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U17" t="n">
-        <v>122.6530896684844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V17" t="n">
-        <v>31.35113235729608</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W17" t="n">
-        <v>31.35113235729608</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X17" t="n">
-        <v>31.35113235729608</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.35113235729608</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5568,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>223.7040404982626</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C18" t="n">
-        <v>223.7040404982626</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D18" t="n">
-        <v>223.7040404982626</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E18" t="n">
-        <v>223.7040404982626</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F18" t="n">
-        <v>223.7040404982626</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H18" t="n">
         <v>110.334904905842</v>
@@ -5598,19 +5598,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M18" t="n">
-        <v>486.8488635328713</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N18" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5628,16 +5628,16 @@
         <v>259.0600686093459</v>
       </c>
       <c r="V18" t="n">
-        <v>223.7040404982626</v>
+        <v>110.334904905842</v>
       </c>
       <c r="W18" t="n">
-        <v>223.7040404982626</v>
+        <v>110.334904905842</v>
       </c>
       <c r="X18" t="n">
-        <v>223.7040404982626</v>
+        <v>110.334904905842</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.7040404982626</v>
+        <v>110.334904905842</v>
       </c>
     </row>
     <row r="19">
@@ -5692,19 +5692,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
         <v>19.28114311021272</v>
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C20" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D20" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5774,28 +5774,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>731.528039392485</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X20" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>795.8418184905681</v>
+        <v>238.2612061051368</v>
       </c>
       <c r="C21" t="n">
-        <v>621.3887892094411</v>
+        <v>63.80817682400979</v>
       </c>
       <c r="D21" t="n">
-        <v>472.4543795481899</v>
+        <v>63.80817682400979</v>
       </c>
       <c r="E21" t="n">
-        <v>313.2169245427344</v>
+        <v>63.80817682400979</v>
       </c>
       <c r="F21" t="n">
-        <v>248.3115976704407</v>
+        <v>63.80817682400979</v>
       </c>
       <c r="G21" t="n">
-        <v>109.5807722530562</v>
+        <v>63.80817682400979</v>
       </c>
       <c r="H21" t="n">
-        <v>109.5807722530562</v>
+        <v>63.80817682400979</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5835,16 +5835,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>248.2447175439888</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>725.4530095217538</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O21" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5853,28 +5853,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V21" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W21" t="n">
-        <v>964.0571555106362</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="X21" t="n">
-        <v>964.0571555106362</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="Y21" t="n">
-        <v>964.0571555106362</v>
+        <v>238.2612061051368</v>
       </c>
     </row>
     <row r="22">
@@ -5935,13 +5935,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
         <v>19.28114311021272</v>
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C23" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D23" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E23" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F23" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G23" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H23" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I23" t="n">
         <v>31.35113235729608</v>
@@ -6008,31 +6008,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="W23" t="n">
-        <v>720.6083788665362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="X23" t="n">
-        <v>477.1596022224361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y23" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>51.29976984439196</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="C24" t="n">
-        <v>51.29976984439196</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="D24" t="n">
-        <v>51.29976984439196</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E24" t="n">
-        <v>51.29976984439196</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F24" t="n">
-        <v>51.29976984439196</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G24" t="n">
-        <v>51.29976984439196</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H24" t="n">
-        <v>51.29976984439196</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6072,16 +6072,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
         <v>964.0571555106362</v>
@@ -6090,28 +6090,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>259.0600686093459</v>
+        <v>752.1658925723343</v>
       </c>
       <c r="W24" t="n">
-        <v>259.0600686093459</v>
+        <v>508.7171159282343</v>
       </c>
       <c r="X24" t="n">
-        <v>259.0600686093459</v>
+        <v>300.8656157227014</v>
       </c>
       <c r="Y24" t="n">
-        <v>51.29976984439196</v>
+        <v>300.8656157227014</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>802.5825927271064</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W26" t="n">
-        <v>802.5825927271064</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X26" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y26" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>588.4532163200711</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C27" t="n">
-        <v>588.4532163200711</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D27" t="n">
-        <v>588.4532163200711</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E27" t="n">
-        <v>429.2157613146156</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
         <v>20.03527576299844</v>
@@ -6306,16 +6306,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M27" t="n">
         <v>473.4149733950735</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O27" t="n">
         <v>712.019119383956</v>
@@ -6330,25 +6330,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>588.4532163200711</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>588.4532163200711</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W27" t="n">
-        <v>588.4532163200711</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X27" t="n">
-        <v>588.4532163200711</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y27" t="n">
-        <v>588.4532163200711</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="28">
@@ -6403,7 +6403,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
         <v>19.28114311021272</v>
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>348.0024326625565</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C29" t="n">
-        <v>348.0024326625565</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>348.0024326625565</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>348.0024326625565</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
-        <v>348.0024326625565</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>348.0024326625565</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>348.0024326625565</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X29" t="n">
-        <v>348.0024326625565</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y29" t="n">
-        <v>348.0024326625565</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>19.28114311021272</v>
+        <v>284.787934186969</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6546,46 +6546,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N30" t="n">
-        <v>781.4136778972854</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>868.6150701775238</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613051</v>
+        <v>868.6150701775238</v>
       </c>
       <c r="T30" t="n">
-        <v>790.6398109613051</v>
+        <v>868.6150701775238</v>
       </c>
       <c r="U30" t="n">
-        <v>562.4161926976942</v>
+        <v>868.6150701775238</v>
       </c>
       <c r="V30" t="n">
-        <v>562.4161926976942</v>
+        <v>868.6150701775238</v>
       </c>
       <c r="W30" t="n">
-        <v>318.9674160535941</v>
+        <v>868.6150701775238</v>
       </c>
       <c r="X30" t="n">
-        <v>318.9674160535941</v>
+        <v>660.7635699719909</v>
       </c>
       <c r="Y30" t="n">
-        <v>111.2071172886402</v>
+        <v>453.003271207037</v>
       </c>
     </row>
     <row r="31">
@@ -6640,22 +6640,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
         <v>19.28114311021272</v>
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C32" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6722,28 +6722,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>929.9119884758385</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>718.7806050553886</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W32" t="n">
-        <v>718.7806050553886</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X32" t="n">
-        <v>718.7806050553886</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y32" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="33">
@@ -6753,43 +6753,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N33" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
         <v>781.4136778972854</v>
@@ -6801,28 +6801,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>726.1056462496665</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>497.8820279860555</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V33" t="n">
-        <v>262.7299197543128</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W33" t="n">
-        <v>19.28114311021272</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X33" t="n">
-        <v>19.28114311021272</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="34">
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K34" t="n">
         <v>19.28114311021272</v>
@@ -6886,22 +6886,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
         <v>19.28114311021272</v>
@@ -6935,7 +6935,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K35" t="n">
         <v>122.2961490211351</v>
@@ -6968,19 +6968,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W35" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X35" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y35" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="36">
@@ -6990,16 +6990,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>964.0571555106362</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="C36" t="n">
-        <v>789.6041262295092</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="D36" t="n">
-        <v>640.669716568258</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="E36" t="n">
-        <v>481.4322615628025</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="F36" t="n">
         <v>362.4348659156472</v>
@@ -7020,46 +7020,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>19.28114311021272</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M36" t="n">
-        <v>257.8852890990952</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N36" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="W36" t="n">
-        <v>964.0571555106362</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="X36" t="n">
-        <v>964.0571555106362</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="Y36" t="n">
-        <v>964.0571555106362</v>
+        <v>362.4348659156472</v>
       </c>
     </row>
     <row r="37">
@@ -7078,16 +7078,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="E37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I37" t="n">
         <v>829.5248650203655</v>
@@ -7148,16 +7148,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C38" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="D38" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E38" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="E38" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
         <v>19.28114311021272</v>
@@ -7227,7 +7227,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>75.41817578802664</v>
       </c>
       <c r="C39" t="n">
         <v>19.28114311021272</v>
@@ -7257,7 +7257,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>248.2447175439888</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
         <v>486.8488635328713</v>
@@ -7275,28 +7275,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U39" t="n">
-        <v>259.0600686093459</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V39" t="n">
-        <v>23.90796037760316</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W39" t="n">
-        <v>19.28114311021272</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="X39" t="n">
-        <v>19.28114311021272</v>
+        <v>75.41817578802664</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>75.41817578802664</v>
       </c>
     </row>
     <row r="40">
@@ -7348,22 +7348,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
         <v>19.28114311021272</v>
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C41" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D41" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
         <v>19.28114311021272</v>
@@ -7445,16 +7445,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V41" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W41" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X41" t="n">
         <v>720.6083788665362</v>
       </c>
       <c r="Y41" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C42" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D42" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E42" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F42" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G42" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H42" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
@@ -7494,46 +7494,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>19.28114311021272</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M42" t="n">
-        <v>257.8852890990952</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N42" t="n">
-        <v>496.4894350879777</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O42" t="n">
-        <v>735.0935810768601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P42" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>487.2836868729568</v>
+        <v>934.6200776674061</v>
       </c>
       <c r="U42" t="n">
-        <v>259.0600686093459</v>
+        <v>706.3964594037951</v>
       </c>
       <c r="V42" t="n">
-        <v>109.5807722530562</v>
+        <v>471.2443511720524</v>
       </c>
       <c r="W42" t="n">
-        <v>109.5807722530562</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="X42" t="n">
-        <v>109.5807722530562</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y42" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="43">
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
         <v>19.28114311021272</v>
@@ -7591,28 +7591,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C44" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D44" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E44" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="F44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
         <v>19.28114311021272</v>
@@ -7667,31 +7667,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T44" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="U44" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="V44" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="W44" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="X44" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="Y44" t="n">
         <v>749.627473042513</v>
-      </c>
-      <c r="U44" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="V44" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="W44" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="X44" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7701,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>298.4948343740486</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C45" t="n">
-        <v>298.4948343740486</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D45" t="n">
-        <v>298.4948343740486</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
-        <v>298.4948343740486</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>298.4948343740486</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
@@ -7734,16 +7734,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N45" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O45" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7755,22 +7755,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>533.6469426057913</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V45" t="n">
-        <v>298.4948343740486</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W45" t="n">
-        <v>298.4948343740486</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X45" t="n">
-        <v>298.4948343740486</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y45" t="n">
-        <v>298.4948343740486</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7979,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8058,25 +8058,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>247.3552705420797</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,10 +8295,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>185.3423563661624</v>
+        <v>173.111405903722</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
@@ -8310,10 +8310,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,25 +8532,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>303.774711870172</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8775,7 +8775,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N12" t="n">
         <v>372.3560009609923</v>
@@ -8784,10 +8784,10 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>247.3552705420797</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9009,13 +9009,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M15" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
@@ -9246,10 +9246,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>382.1386950879875</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
@@ -9258,10 +9258,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9483,7 +9483,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
@@ -9492,10 +9492,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9720,19 +9720,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9954,19 +9954,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M27" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10194,22 +10194,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10349,10 +10349,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10428,19 +10428,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>198.1125443848066</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10668,7 +10668,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
@@ -10680,10 +10680,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>295.1552315763977</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10905,10 +10905,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
@@ -11142,7 +11142,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M42" t="n">
         <v>383.1483227996774</v>
@@ -11154,10 +11154,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11382,19 +11382,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22556,7 +22556,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>415.302737515135</v>
@@ -22568,7 +22568,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22589,31 +22589,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>150.6253511395826</v>
       </c>
       <c r="T2" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22671,28 +22671,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>247.1144340662031</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22723,10 +22723,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>115.622687458563</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -22781,7 +22781,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>152.5300167065108</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22802,10 +22802,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22835,7 +22835,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -22844,7 +22844,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
         <v>128.71681180081</v>
@@ -22863,7 +22863,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22875,13 +22875,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>34.07248230894079</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -22911,25 +22911,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>142.81920059726</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22960,7 +22960,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22981,7 +22981,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -23033,13 +23033,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>184.4282419190523</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
-        <v>120.0869518323295</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23063,25 +23063,25 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -23097,31 +23097,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>127.4196248553433</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>120.4592573625854</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,7 +23145,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23163,10 +23163,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23267,19 +23267,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>8.181203141508689</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23303,16 +23303,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>130.418315862507</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23358,7 +23358,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23397,7 +23397,7 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>247.8610253924609</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23504,19 +23504,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>326.5413387258914</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>10.13979328157633</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23540,16 +23540,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23574,10 +23574,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D15" t="n">
-        <v>126.3942969708654</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -23619,10 +23619,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
         <v>200.1647286948216</v>
@@ -23741,16 +23741,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>185.9922493601736</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,19 +23777,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>237.3633207320585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23826,7 +23826,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23868,7 +23868,7 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>197.7981193194529</v>
+        <v>85.56267508295639</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -23932,10 +23932,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23947,7 +23947,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23975,22 +23975,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>176.0015501456288</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24014,19 +24014,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>128.6853625704253</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24045,31 +24045,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>80.81293878981317</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>46.06146080101384</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,10 +24093,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
@@ -24108,13 +24108,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24175,7 +24175,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24184,7 +24184,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24224,7 +24224,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24248,31 +24248,31 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>168.5437904531102</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24282,7 +24282,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24300,13 +24300,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>58.44478371083549</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24330,28 +24330,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>23.02823684050639</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24412,13 +24412,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24440,16 +24440,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24458,7 +24458,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24485,10 +24485,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
@@ -24500,16 +24500,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>317.3055321907215</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24528,19 +24528,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>78.95612594840514</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24570,25 +24570,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>176.6302781386796</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24643,10 +24643,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>130.2684670434958</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24680,7 +24680,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24692,7 +24692,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>342.8322390905863</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
         <v>98.46051323810809</v>
@@ -24701,7 +24701,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24722,13 +24722,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
@@ -24737,13 +24737,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>157.4457150350269</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24756,10 +24756,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>75.52646921322412</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24777,10 +24777,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,25 +24804,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>5.670169672861803</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24880,10 +24880,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24898,7 +24898,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24917,7 +24917,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24932,10 +24932,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24962,10 +24962,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>116.0654025766999</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -24974,16 +24974,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126115</v>
       </c>
     </row>
     <row r="33">
@@ -25014,10 +25014,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>40.08552890911985</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,16 +25041,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>64.75056867910476</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25059,10 +25059,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25093,13 +25093,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
-        <v>155.4504749272583</v>
+        <v>44.5329991677731</v>
       </c>
       <c r="J34" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K34" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25151,13 +25151,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25208,7 +25208,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>86.73796959247585</v>
@@ -25217,7 +25217,7 @@
         <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25233,16 +25233,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>27.26179070270013</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -25278,16 +25278,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>102.3410493332383</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -25318,7 +25318,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120118</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25330,7 +25330,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J37" t="n">
         <v>93.35918011667277</v>
@@ -25388,19 +25388,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>170.4484560200386</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D38" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
         <v>415.302737515135</v>
@@ -25470,7 +25470,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>117.13283663728</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25515,25 +25515,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>247.1144340662031</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25588,13 +25588,13 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>46.82786452690794</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25606,7 +25606,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25625,16 +25625,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C41" t="n">
-        <v>152.9875061275654</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25643,7 +25643,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25685,16 +25685,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="42">
@@ -25725,10 +25725,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25752,28 +25752,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>171.0220216300238</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>84.81608375669853</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25795,7 +25795,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>167.9909793584588</v>
@@ -25831,7 +25831,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25871,13 +25871,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25907,7 +25907,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -25916,10 +25916,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25928,10 +25928,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>183.9432522271564</v>
       </c>
     </row>
     <row r="45">
@@ -25956,16 +25956,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>63.30063122618253</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25995,7 +25995,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26004,13 +26004,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="46">
@@ -26077,13 +26077,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>481865.9503408641</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408644</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408644</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408644</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408644</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="11">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408644</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879936</v>
       </c>
       <c r="C2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879942</v>
       </c>
       <c r="D2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879943</v>
       </c>
       <c r="E2" t="n">
-        <v>99696.40351879945</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="F2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879936</v>
       </c>
       <c r="G2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879934</v>
       </c>
       <c r="H2" t="n">
         <v>99696.40351879936</v>
       </c>
       <c r="I2" t="n">
-        <v>99696.4035187994</v>
+        <v>99696.40351879942</v>
       </c>
       <c r="J2" t="n">
         <v>99696.40351879934</v>
       </c>
       <c r="K2" t="n">
-        <v>99696.40351879933</v>
+        <v>99696.40351879934</v>
       </c>
       <c r="L2" t="n">
         <v>99696.40351879939</v>
       </c>
       <c r="M2" t="n">
-        <v>99696.40351879937</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="N2" t="n">
+        <v>99696.40351879942</v>
+      </c>
+      <c r="O2" t="n">
+        <v>99696.40351879939</v>
+      </c>
+      <c r="P2" t="n">
         <v>99696.4035187994</v>
-      </c>
-      <c r="O2" t="n">
-        <v>99696.40351879942</v>
-      </c>
-      <c r="P2" t="n">
-        <v>99696.40351879936</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3448.117877250231</v>
+        <v>3448.11787725023</v>
       </c>
       <c r="C4" t="n">
-        <v>3448.117877250231</v>
+        <v>3448.11787725023</v>
       </c>
       <c r="D4" t="n">
-        <v>3448.117877250231</v>
+        <v>3448.11787725023</v>
       </c>
       <c r="E4" t="n">
         <v>3448.117877250231</v>
@@ -26439,7 +26439,7 @@
         <v>3448.117877250231</v>
       </c>
       <c r="J4" t="n">
-        <v>3448.117877250231</v>
+        <v>3448.11787725023</v>
       </c>
       <c r="K4" t="n">
         <v>3448.117877250231</v>
@@ -26454,10 +26454,10 @@
         <v>3448.117877250231</v>
       </c>
       <c r="O4" t="n">
+        <v>3448.11787725023</v>
+      </c>
+      <c r="P4" t="n">
         <v>3448.117877250231</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3448.11787725023</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-32802.41465376024</v>
+        <v>-32802.41465376028</v>
       </c>
       <c r="C6" t="n">
-        <v>47967.01687778749</v>
+        <v>47967.01687778752</v>
       </c>
       <c r="D6" t="n">
-        <v>47967.01687778749</v>
+        <v>47967.01687778753</v>
       </c>
       <c r="E6" t="n">
-        <v>81594.61687778754</v>
+        <v>81594.61687778747</v>
       </c>
       <c r="F6" t="n">
-        <v>81594.61687778748</v>
+        <v>81594.61687778746</v>
       </c>
       <c r="G6" t="n">
-        <v>81594.61687778748</v>
+        <v>81594.61687778744</v>
       </c>
       <c r="H6" t="n">
         <v>81594.61687778746</v>
       </c>
       <c r="I6" t="n">
-        <v>81594.6168777875</v>
+        <v>81594.61687778751</v>
       </c>
       <c r="J6" t="n">
         <v>18534.67427868121</v>
       </c>
       <c r="K6" t="n">
-        <v>81594.61687778743</v>
+        <v>81594.61687778744</v>
       </c>
       <c r="L6" t="n">
         <v>81594.61687778748</v>
       </c>
       <c r="M6" t="n">
-        <v>81594.61687778747</v>
+        <v>81594.61687778748</v>
       </c>
       <c r="N6" t="n">
+        <v>81594.61687778751</v>
+      </c>
+      <c r="O6" t="n">
+        <v>81594.61687778748</v>
+      </c>
+      <c r="P6" t="n">
         <v>81594.6168777875</v>
-      </c>
-      <c r="O6" t="n">
-        <v>81594.61687778751</v>
-      </c>
-      <c r="P6" t="n">
-        <v>81594.61687778746</v>
       </c>
     </row>
   </sheetData>
@@ -34711,7 +34711,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>113.3808631277494</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34942,7 +34942,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
         <v>207.9338608153932</v>
@@ -35015,10 +35015,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>46.78797658628819</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
@@ -35030,10 +35030,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35495,7 +35495,7 @@
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N12" t="n">
         <v>241.0142888776591</v>
@@ -35504,10 +35504,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>113.3808631277494</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35729,13 +35729,13 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M15" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
@@ -35966,10 +35966,10 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>240.0046611659691</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
@@ -35978,10 +35978,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36203,7 +36203,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
@@ -36212,10 +36212,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36440,19 +36440,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36674,19 +36674,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M27" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36914,22 +36914,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N30" t="n">
-        <v>169.9067907798016</v>
-      </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,19 +37148,19 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N33" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O33" t="n">
-        <v>55.51629994036219</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
@@ -37388,7 +37388,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
@@ -37400,10 +37400,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>161.1808241620674</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37625,10 +37625,10 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
@@ -37792,7 +37792,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -37862,7 +37862,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M42" t="n">
         <v>241.0142888776591</v>
@@ -37874,10 +37874,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38102,19 +38102,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_12.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>480499.7470222877</v>
+        <v>507846.9793192721</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006066</v>
+        <v>18327015.93006065</v>
       </c>
     </row>
     <row r="9">
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>58.39471844666277</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,19 +735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>85.31372784089211</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>50.05769526855297</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -835,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>133.186967585368</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -911,13 +911,13 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="I5" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -972,22 +972,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>54.62509479698526</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1029,16 +1029,16 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>83.12218148371487</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1175,16 +1175,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>117.8074216906837</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -1218,22 +1218,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>37.18582309281558</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1379,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>241.0142888776591</v>
+        <v>71.01467844038818</v>
       </c>
       <c r="G11" t="n">
         <v>241.0142888776591</v>
@@ -1388,10 +1388,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I11" t="n">
-        <v>202.2946864288972</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1415,7 +1415,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1467,10 +1467,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>63.14223173826446</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
@@ -1509,7 +1509,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>4.580549094716531</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1613,22 +1613,22 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1.809496073036188</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1661,16 +1661,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="X14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1686,28 +1686,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,22 +1731,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1853,10 +1853,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>220.8837963815379</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>241.0142888776591</v>
@@ -1865,7 +1865,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1889,13 +1889,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>114.9581870864144</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1935,10 +1935,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>35.00246782997241</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
         <v>89.39663285141508</v>
@@ -1980,7 +1980,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>147.2379120664689</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
         <v>47.02492433367365</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2090,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>230.8744955960827</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
         <v>241.0142888776591</v>
@@ -2099,10 +2099,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="21">
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>43.33517205040124</v>
+        <v>84.56713651463426</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2220,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2327,19 +2327,19 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2363,22 +2363,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.47627913313517</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>241.0142888776591</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2397,10 +2397,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>142.8009741436499</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2454,16 +2454,16 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>209.7723503089189</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2515,16 +2515,16 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="S25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2561,16 +2561,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
       <c r="H26" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2612,10 +2612,10 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="X26" t="n">
         <v>241.0142888776591</v>
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>68.29221919223491</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2697,10 +2697,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>29.14270706479791</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2792,25 +2792,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2834,10 +2834,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2852,10 +2852,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2868,10 +2868,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2889,10 +2889,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,28 +2916,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>94.48766447978133</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2956,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3038,13 +3038,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,16 +3105,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3126,10 +3126,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>49.31110394229523</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>85.31372784089217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3165,13 +3165,13 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -3202,16 +3202,16 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I34" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -3263,73 +3263,73 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.809496073036132</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3342,25 +3342,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>84.97365353379637</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -3390,16 +3390,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>123.6003327477366</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3500,10 +3500,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3515,7 +3515,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3554,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3579,10 +3579,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>55.57566235103577</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3633,13 +3633,13 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>116.325098768111</v>
       </c>
       <c r="W39" t="n">
         <v>241.0142888776591</v>
@@ -3648,7 +3648,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3715,10 +3715,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
         <v>241.0142888776591</v>
@@ -3803,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>241.0142888776591</v>
+        <v>212.285385643442</v>
       </c>
       <c r="Y41" t="n">
         <v>241.0142888776591</v>
@@ -3816,16 +3816,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>10.83262261310046</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3870,13 +3870,13 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>29.1427070647978</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>241.0142888776591</v>
@@ -3913,7 +3913,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3974,76 +3974,76 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>21.18375537072436</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T44" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F44" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,7 +4053,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>119.3888130423743</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4104,25 +4104,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>29.79900896488263</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4189,16 +4189,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
-      </c>
-      <c r="X46" t="n">
-        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4352,28 +4352,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>743.5980286395683</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>518.2486856454962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>518.2486856454962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V2" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W2" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X2" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4383,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.28114311021272</v>
+        <v>588.0815197256143</v>
       </c>
       <c r="C3" t="n">
-        <v>19.28114311021272</v>
+        <v>413.6284904444873</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>264.694080783236</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>105.4566257777805</v>
       </c>
       <c r="F3" t="n">
         <v>19.28114311021272</v>
@@ -4410,16 +4410,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>234.810827406191</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M3" t="n">
+        <v>383.2428491569326</v>
+      </c>
+      <c r="N3" t="n">
         <v>473.4149733950735</v>
-      </c>
-      <c r="N3" t="n">
-        <v>712.019119383956</v>
       </c>
       <c r="O3" t="n">
         <v>712.019119383956</v>
@@ -4440,19 +4440,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>913.4938269565423</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>678.3417187247995</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W3" t="n">
-        <v>434.8929420806995</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X3" t="n">
-        <v>227.0414418751666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.28114311021272</v>
+        <v>756.2968567456824</v>
       </c>
     </row>
     <row r="4">
@@ -4483,10 +4483,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4559,10 +4559,10 @@
         <v>233.7108255783361</v>
       </c>
       <c r="H5" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>193.7341723913397</v>
+        <v>380.2300195200815</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>380.2300195200815</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>380.2300195200815</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>220.992564514626</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>74.45800654151097</v>
       </c>
       <c r="G6" t="n">
         <v>19.28114311021272</v>
@@ -4650,19 +4650,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>417.4543050195419</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N6" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4677,19 +4677,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>880.0953560321364</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>644.9432478003937</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>401.4944711562937</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X6" t="n">
-        <v>401.4944711562937</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="Y6" t="n">
-        <v>193.7341723913397</v>
+        <v>548.4453565401495</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
         <v>41.77557929797318</v>
@@ -4741,34 +4741,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>720.6083788665362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C8" t="n">
-        <v>720.6083788665362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D8" t="n">
-        <v>720.6083788665362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="E8" t="n">
-        <v>720.6083788665362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="F8" t="n">
-        <v>720.6083788665362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="G8" t="n">
-        <v>487.4018176583718</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4823,31 +4823,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W8" t="n">
-        <v>720.6083788665362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X8" t="n">
-        <v>720.6083788665362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y8" t="n">
-        <v>720.6083788665362</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>380.2300195200815</v>
+        <v>845.059759863481</v>
       </c>
       <c r="C9" t="n">
-        <v>205.7769902389545</v>
+        <v>670.606730582354</v>
       </c>
       <c r="D9" t="n">
-        <v>56.84258057770322</v>
+        <v>521.6723209211027</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4887,13 +4887,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>383.2428491569326</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N9" t="n">
-        <v>621.8469951458151</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O9" t="n">
         <v>781.4136778972854</v>
@@ -4923,10 +4923,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>756.2056553051034</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>548.4453565401495</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="10">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C11" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="D11" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="E11" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="F11" t="n">
-        <v>710.516763498309</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G11" t="n">
-        <v>467.067986854209</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H11" t="n">
-        <v>223.6192102101089</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I11" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5063,28 +5063,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S11" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T11" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U11" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V11" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W11" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X11" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y11" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.28114311021272</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="C12" t="n">
-        <v>19.28114311021272</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="D12" t="n">
-        <v>19.28114311021272</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="E12" t="n">
-        <v>19.28114311021272</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="F12" t="n">
-        <v>19.28114311021272</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="G12" t="n">
-        <v>19.28114311021272</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28114311021272</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="I12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
@@ -5127,43 +5127,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N12" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O12" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T12" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U12" t="n">
-        <v>259.0600686093459</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V12" t="n">
-        <v>23.90796037760316</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W12" t="n">
-        <v>19.28114311021272</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="X12" t="n">
-        <v>19.28114311021272</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.28114311021272</v>
+        <v>83.81530782185143</v>
       </c>
     </row>
     <row r="13">
@@ -5252,31 +5252,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C14" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D14" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E14" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F14" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G14" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H14" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>21.10891692136039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K14" t="n">
         <v>122.2961490211351</v>
@@ -5309,19 +5309,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W14" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X14" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y14" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C15" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>473.4149733950735</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N15" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O15" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P15" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T15" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U15" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V15" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W15" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X15" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y15" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="16">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>953.9655401424092</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C17" t="n">
-        <v>953.9655401424092</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D17" t="n">
-        <v>953.9655401424092</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E17" t="n">
-        <v>953.9655401424092</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F17" t="n">
-        <v>730.8505943024719</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G17" t="n">
-        <v>487.4018176583718</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H17" t="n">
-        <v>243.9530410142718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5537,28 +5537,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>953.9655401424092</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="U17" t="n">
-        <v>953.9655401424092</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="V17" t="n">
-        <v>953.9655401424092</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="W17" t="n">
-        <v>953.9655401424092</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="X17" t="n">
-        <v>953.9655401424092</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y17" t="n">
-        <v>953.9655401424092</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5568,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>110.334904905842</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="C18" t="n">
-        <v>110.334904905842</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="D18" t="n">
-        <v>110.334904905842</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="E18" t="n">
-        <v>110.334904905842</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="F18" t="n">
-        <v>110.334904905842</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="G18" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H18" t="n">
         <v>110.334904905842</v>
@@ -5598,16 +5598,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>234.810827406191</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P18" t="n">
         <v>894.6625969973069</v>
@@ -5628,16 +5628,16 @@
         <v>259.0600686093459</v>
       </c>
       <c r="V18" t="n">
-        <v>110.334904905842</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W18" t="n">
-        <v>110.334904905842</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X18" t="n">
-        <v>110.334904905842</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="Y18" t="n">
-        <v>110.334904905842</v>
+        <v>259.0600686093459</v>
       </c>
     </row>
     <row r="19">
@@ -5695,13 +5695,13 @@
         <v>66.78106667958005</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U19" t="n">
         <v>19.28114311021272</v>
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="F20" t="n">
-        <v>730.8505943024719</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G20" t="n">
-        <v>487.4018176583718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H20" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5795,7 +5795,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>238.2612061051368</v>
+        <v>588.0815197256143</v>
       </c>
       <c r="C21" t="n">
-        <v>63.80817682400979</v>
+        <v>413.6284904444873</v>
       </c>
       <c r="D21" t="n">
-        <v>63.80817682400979</v>
+        <v>264.694080783236</v>
       </c>
       <c r="E21" t="n">
-        <v>63.80817682400979</v>
+        <v>105.4566257777805</v>
       </c>
       <c r="F21" t="n">
-        <v>63.80817682400979</v>
+        <v>105.4566257777805</v>
       </c>
       <c r="G21" t="n">
-        <v>63.80817682400979</v>
+        <v>105.4566257777805</v>
       </c>
       <c r="H21" t="n">
-        <v>63.80817682400979</v>
+        <v>105.4566257777805</v>
       </c>
       <c r="I21" t="n">
         <v>20.03527576299844</v>
@@ -5835,46 +5835,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N21" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V21" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W21" t="n">
-        <v>446.0215048700907</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X21" t="n">
-        <v>446.0215048700907</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y21" t="n">
-        <v>238.2612061051368</v>
+        <v>756.2968567456824</v>
       </c>
     </row>
     <row r="22">
@@ -5932,7 +5932,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S22" t="n">
         <v>19.28114311021272</v>
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.35113235729608</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C23" t="n">
-        <v>31.35113235729608</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D23" t="n">
-        <v>31.35113235729608</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E23" t="n">
-        <v>31.35113235729608</v>
+        <v>749.627473042513</v>
       </c>
       <c r="F23" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G23" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6011,28 +6011,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>761.6974622895962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>761.6974622895962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U23" t="n">
-        <v>518.2486856454962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V23" t="n">
-        <v>274.7999090013961</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W23" t="n">
-        <v>31.35113235729608</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X23" t="n">
-        <v>31.35113235729608</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.35113235729608</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6042,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>132.6502787026334</v>
+        <v>342.668582052591</v>
       </c>
       <c r="C24" t="n">
-        <v>132.6502787026334</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D24" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
         <v>19.28114311021272</v>
@@ -6069,49 +6069,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>613.2059550252818</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N24" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="V24" t="n">
-        <v>752.1658925723343</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="W24" t="n">
-        <v>508.7171159282343</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="X24" t="n">
-        <v>300.8656157227014</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="Y24" t="n">
-        <v>300.8656157227014</v>
+        <v>510.883919072659</v>
       </c>
     </row>
     <row r="25">
@@ -6163,13 +6163,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S25" t="n">
         <v>19.28114311021272</v>
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6260,16 +6260,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X26" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y26" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>20.03527576299844</v>
+        <v>89.01731535111452</v>
       </c>
       <c r="C27" t="n">
-        <v>20.03527576299844</v>
+        <v>89.01731535111452</v>
       </c>
       <c r="D27" t="n">
-        <v>20.03527576299844</v>
+        <v>89.01731535111452</v>
       </c>
       <c r="E27" t="n">
-        <v>20.03527576299844</v>
+        <v>89.01731535111452</v>
       </c>
       <c r="F27" t="n">
-        <v>20.03527576299844</v>
+        <v>89.01731535111452</v>
       </c>
       <c r="G27" t="n">
         <v>20.03527576299844</v>
@@ -6309,13 +6309,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
+        <v>144.6387031680501</v>
+      </c>
+      <c r="M27" t="n">
         <v>234.810827406191</v>
       </c>
-      <c r="M27" t="n">
+      <c r="N27" t="n">
         <v>473.4149733950735</v>
-      </c>
-      <c r="N27" t="n">
-        <v>712.019119383956</v>
       </c>
       <c r="O27" t="n">
         <v>712.019119383956</v>
@@ -6345,10 +6345,10 @@
         <v>257.2326523711826</v>
       </c>
       <c r="X27" t="n">
-        <v>227.7955745279523</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y27" t="n">
-        <v>20.03527576299844</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.1786963984129</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="D29" t="n">
-        <v>262.7299197543128</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="E29" t="n">
-        <v>262.7299197543128</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543128</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="G29" t="n">
-        <v>262.7299197543128</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W29" t="n">
-        <v>720.6083788665362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X29" t="n">
-        <v>506.1786963984129</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y29" t="n">
-        <v>506.1786963984129</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="30">
@@ -6516,37 +6516,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>284.787934186969</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>234.810827406191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M30" t="n">
         <v>234.810827406191</v>
@@ -6564,28 +6564,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>868.6150701775238</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>868.6150701775238</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>868.6150701775238</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U30" t="n">
-        <v>868.6150701775238</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V30" t="n">
-        <v>868.6150701775238</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W30" t="n">
-        <v>868.6150701775238</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X30" t="n">
-        <v>660.7635699719909</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y30" t="n">
-        <v>453.003271207037</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E31" t="n">
         <v>19.28114311021272</v>
@@ -6658,13 +6658,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>19.28114311021272</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6725,25 +6725,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V32" t="n">
-        <v>720.6083788665362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="W32" t="n">
-        <v>477.1596022224361</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="X32" t="n">
-        <v>233.7108255783361</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="Y32" t="n">
-        <v>19.28114311021272</v>
+        <v>527.5764290961142</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>69.84447166430675</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="C33" t="n">
-        <v>69.84447166430675</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D33" t="n">
-        <v>69.84447166430675</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E33" t="n">
-        <v>69.84447166430675</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>69.84447166430675</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>69.84447166430675</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>69.84447166430675</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M33" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>877.8816728430684</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>877.8816728430684</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>877.8816728430684</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>877.8816728430684</v>
       </c>
       <c r="V33" t="n">
-        <v>728.9050472788936</v>
+        <v>877.8816728430684</v>
       </c>
       <c r="W33" t="n">
-        <v>485.4562706347935</v>
+        <v>877.8816728430684</v>
       </c>
       <c r="X33" t="n">
-        <v>277.6047704292607</v>
+        <v>877.8816728430684</v>
       </c>
       <c r="Y33" t="n">
-        <v>69.84447166430675</v>
+        <v>670.1213740781145</v>
       </c>
     </row>
     <row r="34">
@@ -6850,13 +6850,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="H34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
         <v>19.28114311021272</v>
@@ -6911,31 +6911,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="C35" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K35" t="n">
         <v>122.2961490211351</v>
@@ -6956,31 +6956,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="V35" t="n">
-        <v>720.6083788665362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="W35" t="n">
-        <v>477.1596022224361</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="X35" t="n">
-        <v>477.1596022224361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="Y35" t="n">
-        <v>477.1596022224361</v>
+        <v>231.8830517671884</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>362.4348659156472</v>
+        <v>878.2251822441752</v>
       </c>
       <c r="C36" t="n">
-        <v>362.4348659156472</v>
+        <v>703.7721529630483</v>
       </c>
       <c r="D36" t="n">
-        <v>362.4348659156472</v>
+        <v>554.837743301797</v>
       </c>
       <c r="E36" t="n">
-        <v>362.4348659156472</v>
+        <v>395.6002882963414</v>
       </c>
       <c r="F36" t="n">
-        <v>362.4348659156472</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="G36" t="n">
-        <v>223.7040404982626</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H36" t="n">
         <v>110.334904905842</v>
@@ -7017,10 +7017,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>65.60123993063803</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M36" t="n">
         <v>304.2053859195205</v>
@@ -7038,28 +7038,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>362.4348659156472</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>362.4348659156472</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W36" t="n">
-        <v>362.4348659156472</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X36" t="n">
-        <v>362.4348659156472</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y36" t="n">
-        <v>362.4348659156472</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C38" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="D38" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="E38" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="D38" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="F38" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
         <v>19.28114311021272</v>
@@ -7202,22 +7202,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="39">
@@ -7227,7 +7227,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>75.41817578802664</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
         <v>19.28114311021272</v>
@@ -7260,16 +7260,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>486.8488635328713</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N39" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7281,22 +7281,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V39" t="n">
-        <v>526.7184526376595</v>
+        <v>846.5570557448675</v>
       </c>
       <c r="W39" t="n">
-        <v>283.2696759935595</v>
+        <v>603.1082791007675</v>
       </c>
       <c r="X39" t="n">
-        <v>75.41817578802664</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="Y39" t="n">
-        <v>75.41817578802664</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="40">
@@ -7363,7 +7363,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
         <v>19.28114311021272</v>
@@ -7451,10 +7451,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X41" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y41" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="42">
@@ -7464,34 +7464,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>20.03527576299844</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="C42" t="n">
-        <v>20.03527576299844</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D42" t="n">
-        <v>20.03527576299844</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
         <v>248.2447175439888</v>
@@ -7518,22 +7518,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>934.6200776674061</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>706.3964594037951</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V42" t="n">
-        <v>471.2443511720524</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W42" t="n">
-        <v>227.7955745279523</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X42" t="n">
-        <v>227.7955745279523</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y42" t="n">
-        <v>20.03527576299844</v>
+        <v>512.8480801015824</v>
       </c>
     </row>
     <row r="43">
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H43" t="n">
         <v>19.28114311021272</v>
@@ -7591,28 +7591,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="44">
@@ -7622,16 +7622,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>506.1786963984129</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="C44" t="n">
-        <v>506.1786963984129</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="D44" t="n">
-        <v>506.1786963984129</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="E44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F44" t="n">
         <v>19.28114311021272</v>
@@ -7667,31 +7667,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T44" t="n">
-        <v>953.9655401424092</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U44" t="n">
-        <v>953.9655401424092</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V44" t="n">
-        <v>953.9655401424092</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="W44" t="n">
-        <v>953.9655401424092</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="X44" t="n">
-        <v>953.9655401424092</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="Y44" t="n">
-        <v>749.627473042513</v>
+        <v>40.6788758079141</v>
       </c>
     </row>
     <row r="45">
@@ -7752,25 +7752,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U45" t="n">
-        <v>735.8335372470253</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V45" t="n">
-        <v>500.6814290152826</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="W45" t="n">
-        <v>257.2326523711826</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="X45" t="n">
-        <v>49.38115216564972</v>
+        <v>347.6362025240296</v>
       </c>
       <c r="Y45" t="n">
-        <v>19.28114311021272</v>
+        <v>139.8759037590757</v>
       </c>
     </row>
     <row r="46">
@@ -7837,13 +7837,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
         <v>19.28114311021272</v>
@@ -7979,7 +7979,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8058,19 +8058,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>356.2611315939937</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>222.4246658592332</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8216,7 +8216,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8298,22 +8298,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>173.111405903722</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,16 +8535,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>303.774711870172</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8775,7 +8775,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>241.9453110519923</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N12" t="n">
         <v>372.3560009609923</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9006,25 +9006,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>356.2611315939937</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9246,10 +9246,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>359.8407857361378</v>
+        <v>312.0431814381598</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
@@ -9258,7 +9258,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9483,22 +9483,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>198.1125443848066</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,25 +9717,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O24" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9957,16 +9957,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>229.6373335557741</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10191,13 +10191,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>229.6373335557741</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
@@ -10352,7 +10352,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10428,25 +10428,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M33" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,13 +10665,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>185.3423563661624</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
@@ -10908,19 +10908,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>382.1386950879875</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11139,10 +11139,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>369.8307175917693</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M42" t="n">
         <v>383.1483227996774</v>
@@ -22568,7 +22568,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22592,28 +22592,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>150.6253511395826</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>49.05096647893927</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22623,19 +22623,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>59.75548455249177</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -22680,16 +22680,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>175.8836868124218</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -22723,13 +22723,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>22.26350734189026</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22799,13 +22799,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I5" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22860,22 +22860,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>82.71842236622538</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -22917,16 +22917,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>142.81920059726</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -22942,7 +22942,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>56.32934533914265</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -22960,10 +22960,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22981,7 +22981,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -23033,13 +23033,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>184.4282419190523</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>120.0869518323295</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23063,16 +23063,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23081,10 +23081,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23097,7 +23097,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>48.72576195918364</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -23106,22 +23106,22 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>120.4592573625854</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23163,10 +23163,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23267,7 +23267,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>165.8617568640524</v>
+        <v>335.8613673013232</v>
       </c>
       <c r="G11" t="n">
         <v>174.288448637476</v>
@@ -23276,10 +23276,10 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I11" t="n">
-        <v>8.181203141508689</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23303,7 +23303,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
@@ -23355,10 +23355,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>26.25440111315061</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,13 +23382,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23397,7 +23397,7 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>247.1144340662031</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23501,22 +23501,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>10.13979328157633</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23549,16 +23549,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>136.9555830739709</v>
       </c>
       <c r="X14" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23574,28 +23574,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,22 +23619,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23741,10 +23741,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>185.9922493601736</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
         <v>98.46051323810809</v>
@@ -23753,7 +23753,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23777,13 +23777,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>108.137662477717</v>
       </c>
       <c r="U17" t="n">
         <v>251.3456529078365</v>
@@ -23823,10 +23823,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>102.3410493332382</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23868,7 +23868,7 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>85.56267508295639</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23944,7 +23944,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>239.2941050228172</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23978,7 +23978,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>176.0015501456288</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
         <v>174.288448637476</v>
@@ -23987,10 +23987,10 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="21">
@@ -24045,16 +24045,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24066,7 +24066,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>46.06146080101384</v>
+        <v>4.829496336780821</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,10 +24093,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
@@ -24108,7 +24108,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24172,10 +24172,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S22" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24215,19 +24215,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24251,22 +24251,22 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>168.5437904531102</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>125.4575720412377</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24285,10 +24285,10 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -24300,7 +24300,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
@@ -24330,10 +24330,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>28.88219696018794</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
@@ -24342,16 +24342,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>23.02823684050639</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24403,16 +24403,16 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>46.82786452690794</v>
       </c>
       <c r="S25" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24449,16 +24449,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24500,10 +24500,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X26" t="n">
         <v>128.71681180081</v>
@@ -24519,7 +24519,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24534,7 +24534,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>69.05129797097572</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24585,10 +24585,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>176.6302781386796</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24646,7 +24646,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24667,7 +24667,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
     <row r="29">
@@ -24680,7 +24680,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24689,16 +24689,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>158.0503210826583</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24722,10 +24722,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
@@ -24740,10 +24740,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>157.4457150350269</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24756,10 +24756,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24777,10 +24777,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,28 +24804,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>5.670169672861803</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24844,7 +24844,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24898,7 +24898,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24926,13 +24926,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>318.2910467450428</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24965,25 +24965,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>173.9525530126115</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24993,16 +24993,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25014,10 +25014,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>40.08552890911985</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,7 +25041,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>14.84410631175096</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -25053,13 +25053,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25090,16 +25090,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H34" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I34" t="n">
-        <v>44.5329991677731</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J34" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -25151,13 +25151,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25172,7 +25172,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25196,7 +25196,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>8.181203141508671</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25208,16 +25208,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25230,25 +25230,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>81.55953011607097</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25278,16 +25278,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>102.3410493332383</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -25318,7 +25318,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>13.24699506120118</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25388,10 +25388,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25403,7 +25403,7 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25442,7 +25442,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25467,10 +25467,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>117.13283663728</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25521,13 +25521,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>116.4754883813142</v>
       </c>
       <c r="W39" t="n">
         <v>10.68069428326055</v>
@@ -25536,7 +25536,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25603,10 +25603,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V40" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>170.4484560200385</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
         <v>124.2586028933485</v>
@@ -25691,7 +25691,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>128.71681180081</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y41" t="n">
         <v>145.2236497783945</v>
@@ -25704,16 +25704,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>155.7005610367669</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25728,7 +25728,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25758,13 +25758,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>171.0220216300238</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>10.68069428326055</v>
@@ -25801,7 +25801,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H43" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I43" t="n">
         <v>155.4504749272583</v>
@@ -25831,7 +25831,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25871,10 +25871,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>140.9160811946027</v>
+        <v>360.7466147015374</v>
       </c>
       <c r="F44" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
@@ -25907,31 +25907,31 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>183.9432522271564</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25941,7 +25941,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>47.144370607493</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -25992,25 +25992,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>175.8836868124217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26077,7 +26077,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26086,7 +26086,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408644</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408644</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408644</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408644</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408644</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>99696.40351879934</v>
+      </c>
+      <c r="C2" t="n">
+        <v>99696.40351879939</v>
+      </c>
+      <c r="D2" t="n">
+        <v>99696.40351879942</v>
+      </c>
+      <c r="E2" t="n">
+        <v>99696.40351879942</v>
+      </c>
+      <c r="F2" t="n">
+        <v>99696.40351879939</v>
+      </c>
+      <c r="G2" t="n">
         <v>99696.40351879936</v>
       </c>
-      <c r="C2" t="n">
-        <v>99696.40351879942</v>
-      </c>
-      <c r="D2" t="n">
-        <v>99696.40351879943</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="H2" t="n">
+        <v>99696.40351879934</v>
+      </c>
+      <c r="I2" t="n">
         <v>99696.40351879937</v>
-      </c>
-      <c r="F2" t="n">
-        <v>99696.40351879936</v>
-      </c>
-      <c r="G2" t="n">
-        <v>99696.40351879934</v>
-      </c>
-      <c r="H2" t="n">
-        <v>99696.40351879936</v>
-      </c>
-      <c r="I2" t="n">
-        <v>99696.40351879942</v>
       </c>
       <c r="J2" t="n">
         <v>99696.40351879934</v>
       </c>
       <c r="K2" t="n">
+        <v>99696.40351879939</v>
+      </c>
+      <c r="L2" t="n">
         <v>99696.40351879934</v>
-      </c>
-      <c r="L2" t="n">
-        <v>99696.40351879939</v>
       </c>
       <c r="M2" t="n">
         <v>99696.40351879939</v>
       </c>
       <c r="N2" t="n">
-        <v>99696.40351879942</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="O2" t="n">
         <v>99696.40351879939</v>
       </c>
       <c r="P2" t="n">
-        <v>99696.4035187994</v>
+        <v>99696.40351879939</v>
       </c>
     </row>
     <row r="3">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3448.11787725023</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="C4" t="n">
-        <v>3448.11787725023</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="D4" t="n">
-        <v>3448.11787725023</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="E4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="F4" t="n">
-        <v>3448.11787725023</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="G4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="H4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="I4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="J4" t="n">
-        <v>3448.11787725023</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="K4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="L4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039668</v>
       </c>
       <c r="M4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="N4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="O4" t="n">
-        <v>3448.11787725023</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="P4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-32802.41465376028</v>
+        <v>-29533.82927421403</v>
       </c>
       <c r="C6" t="n">
-        <v>47967.01687778752</v>
+        <v>51235.60225733375</v>
       </c>
       <c r="D6" t="n">
-        <v>47967.01687778753</v>
+        <v>51235.60225733378</v>
       </c>
       <c r="E6" t="n">
-        <v>81594.61687778747</v>
+        <v>84863.20225733377</v>
       </c>
       <c r="F6" t="n">
-        <v>81594.61687778746</v>
+        <v>84863.20225733375</v>
       </c>
       <c r="G6" t="n">
-        <v>81594.61687778744</v>
+        <v>84863.20225733372</v>
       </c>
       <c r="H6" t="n">
-        <v>81594.61687778746</v>
+        <v>84863.2022573337</v>
       </c>
       <c r="I6" t="n">
-        <v>81594.61687778751</v>
+        <v>84863.20225733373</v>
       </c>
       <c r="J6" t="n">
-        <v>18534.67427868121</v>
+        <v>21803.25965822748</v>
       </c>
       <c r="K6" t="n">
-        <v>81594.61687778744</v>
+        <v>84863.20225733375</v>
       </c>
       <c r="L6" t="n">
-        <v>81594.61687778748</v>
+        <v>84863.2022573337</v>
       </c>
       <c r="M6" t="n">
-        <v>81594.61687778748</v>
+        <v>84863.20225733375</v>
       </c>
       <c r="N6" t="n">
-        <v>81594.61687778751</v>
+        <v>84863.20225733373</v>
       </c>
       <c r="O6" t="n">
-        <v>81594.61687778748</v>
+        <v>84863.20225733375</v>
       </c>
       <c r="P6" t="n">
-        <v>81594.6168777875</v>
+        <v>84863.20225733375</v>
       </c>
     </row>
   </sheetData>
@@ -34711,7 +34711,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34778,19 +34778,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
+        <v>91.0829537758999</v>
+      </c>
+      <c r="O3" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -35018,22 +35018,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>34.55702612384782</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,7 +35185,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35255,16 +35255,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35495,7 +35495,7 @@
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>99.81127712997396</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N12" t="n">
         <v>241.0142888776591</v>
@@ -35507,7 +35507,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>217.7067518141195</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
+        <v>113.3808631277495</v>
+      </c>
+      <c r="N15" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35966,10 +35966,10 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>217.7067518141195</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
@@ -35978,7 +35978,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>70.09551364982758</v>
@@ -36203,22 +36203,22 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>55.51629994036219</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,25 +36437,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N24" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O24" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36677,16 +36677,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
         <v>91.0829537758999</v>
-      </c>
-      <c r="M27" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36911,13 +36911,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
@@ -37148,25 +37148,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M33" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,13 +37385,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
@@ -37628,19 +37628,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>240.0046611659691</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37789,7 +37789,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
@@ -37859,10 +37859,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>231.276337811895</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M42" t="n">
         <v>241.0142888776591</v>
@@ -38029,7 +38029,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P44" t="n">
         <v>90.5657124162131</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_12.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>507846.9793192721</v>
+        <v>509551.7353335388</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514378</v>
+        <v>925399.399451438</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006065</v>
+        <v>18327015.93006067</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5571875.219309998</v>
+        <v>5571875.219309996</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -701,25 +703,25 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>241.0142888776591</v>
@@ -735,19 +737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>85.31372784089211</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -759,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -792,16 +794,16 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>49.3111039422953</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -835,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281241</v>
+        <v>39.82778746869526</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -911,13 +913,13 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -947,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>220.8837963815379</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>241.0142888776591</v>
@@ -981,13 +983,13 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>54.62509479698526</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1032,10 +1034,10 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>116.325098768111</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1054,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1093,16 +1095,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1133,28 +1135,28 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>90.38893773807641</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,16 +1177,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1209,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>117.8074216906837</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1266,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>49.3111039422953</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1309,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1379,13 +1381,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>71.01467844038818</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>241.0142888776591</v>
+        <v>120.9273370453295</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
@@ -1418,10 +1420,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1467,10 +1469,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>63.14223173826446</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
@@ -1509,7 +1511,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>241.0142888776591</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1613,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1622,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,19 +1660,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U14" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W14" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1859,52 +1861,52 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I17" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R17" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S17" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T17" t="n">
-        <v>114.9581870864144</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1935,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>35.00246782997241</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>112.2354442364965</v>
@@ -1980,7 +1982,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>35.00246782997241</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2044,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2056,10 +2058,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2084,70 +2086,70 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S20" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G20" t="n">
+      <c r="W20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,16 +2159,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2178,10 +2180,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>84.56713651463426</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2211,22 +2213,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2327,64 +2329,64 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="W23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G23" t="n">
+      <c r="X23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H23" t="n">
+      <c r="Y23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,31 +2396,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>142.8009741436499</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2463,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2515,13 +2517,13 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2536,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="D26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2615,10 +2617,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2631,13 +2633,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2646,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>68.29221919223491</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2682,22 +2684,22 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>176.8798519287821</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2779,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2801,16 +2803,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2834,28 +2836,28 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2883,16 +2885,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,25 +2918,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>148.8187926179027</v>
       </c>
       <c r="W30" t="n">
-        <v>4.580549094716531</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2953,10 +2955,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3038,13 +3040,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3080,7 +3082,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3089,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>3.265316057196634</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="33">
@@ -3105,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -3117,19 +3119,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>50.63399959316922</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>85.31372784089217</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3174,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3202,55 +3204,55 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3278,13 +3280,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3308,10 +3310,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3320,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>241.0142888776591</v>
@@ -3329,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3342,31 +3344,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>84.97365353379637</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,19 +3392,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>89.93607067950306</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3430,58 +3432,58 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3512,13 +3514,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="F38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3545,16 +3547,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>212.285385643442</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3588,13 +3590,13 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>1.800737056637706</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3627,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>116.325098768111</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3737,76 +3739,76 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C41" t="n">
+      <c r="V41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X41" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,13 +3818,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>10.83262261310046</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>130.8214584712332</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -3870,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3913,46 +3915,46 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3983,13 +3985,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4022,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,10 +4055,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>119.3888130423743</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>90.16066412513261</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4077,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4104,10 +4106,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4198,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="C2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U2" t="n">
-        <v>749.627473042513</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V2" t="n">
-        <v>506.1786963984129</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="W2" t="n">
-        <v>262.7299197543128</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="X2" t="n">
-        <v>19.28114311021272</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.28114311021272</v>
+        <v>132.7447050367114</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>588.0815197256143</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C3" t="n">
-        <v>413.6284904444873</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D3" t="n">
-        <v>264.694080783236</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E3" t="n">
-        <v>105.4566257777805</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4419,10 +4421,10 @@
         <v>383.2428491569326</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4440,19 +4442,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y3" t="n">
-        <v>756.2968567456824</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="4">
@@ -4483,10 +4485,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>113.583345248266</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>233.7108255783361</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="C5" t="n">
-        <v>233.7108255783361</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="D5" t="n">
-        <v>233.7108255783361</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="E5" t="n">
-        <v>233.7108255783361</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="F5" t="n">
-        <v>233.7108255783361</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="G5" t="n">
-        <v>233.7108255783361</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="W5" t="n">
-        <v>720.6083788665362</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="X5" t="n">
-        <v>477.1596022224361</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="Y5" t="n">
-        <v>233.7108255783361</v>
+        <v>243.9530410142718</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>380.2300195200815</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>380.2300195200815</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>380.2300195200815</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>220.992564514626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>74.45800654151097</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
         <v>19.28114311021272</v>
@@ -4650,7 +4652,7 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M6" t="n">
         <v>542.809531908403</v>
@@ -4680,16 +4682,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>846.5570557448675</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>603.1082791007675</v>
       </c>
       <c r="X6" t="n">
-        <v>756.2056553051034</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="Y6" t="n">
-        <v>548.4453565401495</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="7">
@@ -4699,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C7" t="n">
         <v>41.77557929797318</v>
@@ -4741,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C8" t="n">
-        <v>122.6530896684844</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D8" t="n">
-        <v>122.6530896684844</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E8" t="n">
-        <v>122.6530896684844</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F8" t="n">
-        <v>122.6530896684844</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G8" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X8" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y8" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>845.059759863481</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C9" t="n">
-        <v>670.606730582354</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>521.6723209211027</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4887,19 +4889,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M9" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N9" t="n">
-        <v>781.4136778972854</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4914,19 +4916,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X9" t="n">
-        <v>964.0571555106362</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y9" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4978,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C11" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D11" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="E11" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="F11" t="n">
-        <v>730.8505943024719</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="G11" t="n">
-        <v>487.4018176583718</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="H11" t="n">
         <v>243.9530410142718</v>
@@ -5066,25 +5068,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S11" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T11" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U11" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V11" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W11" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X11" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y11" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C12" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D12" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E12" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
@@ -5130,7 +5132,7 @@
         <v>542.809531908403</v>
       </c>
       <c r="N12" t="n">
-        <v>781.4136778972854</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O12" t="n">
         <v>781.4136778972854</v>
@@ -5142,28 +5144,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T12" t="n">
-        <v>790.6398109613051</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U12" t="n">
-        <v>562.4161926976942</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V12" t="n">
-        <v>327.2640844659515</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W12" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X12" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y12" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="13">
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C14" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D14" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E14" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F14" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G14" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
         <v>19.28114311021272</v>
@@ -5276,7 +5278,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K14" t="n">
         <v>122.2961490211351</v>
@@ -5306,22 +5308,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U14" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V14" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W14" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X14" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y14" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="15">
@@ -5364,16 +5366,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>486.8488635328713</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N15" t="n">
-        <v>725.4530095217538</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O15" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P15" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>475.3318284112885</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U17" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V17" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W17" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X17" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y17" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5568,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>259.0600686093459</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="C18" t="n">
-        <v>259.0600686093459</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="D18" t="n">
-        <v>259.0600686093459</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E18" t="n">
-        <v>259.0600686093459</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F18" t="n">
-        <v>259.0600686093459</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G18" t="n">
         <v>223.7040404982626</v>
@@ -5601,13 +5603,13 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>417.4543050195419</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N18" t="n">
-        <v>656.0584510084244</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O18" t="n">
-        <v>894.6625969973069</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P18" t="n">
         <v>894.6625969973069</v>
@@ -5628,16 +5630,16 @@
         <v>259.0600686093459</v>
       </c>
       <c r="V18" t="n">
-        <v>259.0600686093459</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="W18" t="n">
-        <v>259.0600686093459</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="X18" t="n">
-        <v>259.0600686093459</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="Y18" t="n">
-        <v>259.0600686093459</v>
+        <v>223.7040404982626</v>
       </c>
     </row>
     <row r="19">
@@ -5692,19 +5694,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
         <v>19.28114311021272</v>
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>749.627473042513</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="C20" t="n">
-        <v>749.627473042513</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="D20" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5774,28 +5776,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="X20" t="n">
-        <v>964.0571555106362</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="Y20" t="n">
-        <v>749.627473042513</v>
+        <v>114.6452713866835</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>588.0815197256143</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="C21" t="n">
-        <v>413.6284904444873</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="D21" t="n">
-        <v>264.694080783236</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="E21" t="n">
-        <v>105.4566257777805</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>105.4566257777805</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>105.4566257777805</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>105.4566257777805</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5835,10 +5837,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>234.810827406191</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N21" t="n">
         <v>473.4149733950735</v>
@@ -5859,22 +5861,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V21" t="n">
-        <v>964.0571555106362</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W21" t="n">
-        <v>964.0571555106362</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X21" t="n">
-        <v>964.0571555106362</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y21" t="n">
-        <v>756.2968567456824</v>
+        <v>55.04605772994853</v>
       </c>
     </row>
     <row r="22">
@@ -5932,7 +5934,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
         <v>19.28114311021272</v>
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C23" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
         <v>749.627473042513</v>
       </c>
       <c r="W23" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X23" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y23" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>342.668582052591</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C24" t="n">
-        <v>168.215552771464</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6075,7 +6077,7 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>249.2442489785619</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N24" t="n">
         <v>473.4149733950735</v>
@@ -6090,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>718.6442178376129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>718.6442178376129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>718.6442178376129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>718.6442178376129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W24" t="n">
-        <v>718.6442178376129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X24" t="n">
-        <v>718.6442178376129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y24" t="n">
-        <v>510.883919072659</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="25">
@@ -6163,25 +6165,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
         <v>19.28114311021272</v>
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C26" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D26" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E26" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6263,13 +6265,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X26" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y26" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>89.01731535111452</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="C27" t="n">
-        <v>89.01731535111452</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="D27" t="n">
-        <v>89.01731535111452</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E27" t="n">
-        <v>89.01731535111452</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>89.01731535111452</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
         <v>20.03527576299844</v>
@@ -6330,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U27" t="n">
-        <v>735.8335372470253</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V27" t="n">
-        <v>500.6814290152826</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="W27" t="n">
-        <v>257.2326523711826</v>
+        <v>376.8211856297825</v>
       </c>
       <c r="X27" t="n">
-        <v>257.2326523711826</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="Y27" t="n">
-        <v>257.2326523711826</v>
+        <v>168.9696854242497</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>802.5825927271064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C29" t="n">
-        <v>802.5825927271064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>802.5825927271064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>802.5825927271064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>559.1338160830064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>315.6850394389064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S29" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T29" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U29" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V29" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W29" t="n">
-        <v>802.5825927271064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X29" t="n">
-        <v>802.5825927271064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y29" t="n">
-        <v>802.5825927271064</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="30">
@@ -6516,37 +6518,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M30" t="n">
         <v>234.810827406191</v>
@@ -6564,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V30" t="n">
-        <v>23.90796037760316</v>
+        <v>813.73514276528</v>
       </c>
       <c r="W30" t="n">
-        <v>19.28114311021272</v>
+        <v>570.28636612118</v>
       </c>
       <c r="X30" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="Y30" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
     </row>
     <row r="31">
@@ -6601,7 +6603,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="D31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
         <v>19.28114311021272</v>
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>527.5764290961142</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>527.5764290961142</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>527.5764290961142</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>527.5764290961142</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>284.1276524520142</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6728,22 +6730,22 @@
         <v>752.9257720901863</v>
       </c>
       <c r="T32" t="n">
-        <v>527.5764290961142</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U32" t="n">
-        <v>527.5764290961142</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V32" t="n">
-        <v>527.5764290961142</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W32" t="n">
-        <v>527.5764290961142</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X32" t="n">
-        <v>527.5764290961142</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y32" t="n">
-        <v>527.5764290961142</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>501.9060370580465</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="C33" t="n">
-        <v>327.4530077769195</v>
+        <v>616.1867816801781</v>
       </c>
       <c r="D33" t="n">
-        <v>178.5185981156682</v>
+        <v>467.2523720189268</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>308.0149170134713</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>161.4803590403563</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>161.4803590403563</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>712.019119383956</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>877.8816728430684</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>877.8816728430684</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>877.8816728430684</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U33" t="n">
-        <v>877.8816728430684</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V33" t="n">
-        <v>877.8816728430684</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W33" t="n">
-        <v>877.8816728430684</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X33" t="n">
-        <v>877.8816728430684</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y33" t="n">
-        <v>670.1213740781145</v>
+        <v>790.6398109613051</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
         <v>19.28114311021272</v>
@@ -6898,10 +6900,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>231.8830517671884</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="C35" t="n">
-        <v>231.8830517671884</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="D35" t="n">
-        <v>231.8830517671884</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="E35" t="n">
-        <v>231.8830517671884</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="F35" t="n">
-        <v>231.8830517671884</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="G35" t="n">
-        <v>231.8830517671884</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="H35" t="n">
-        <v>231.8830517671884</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>962.2293816994886</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S35" t="n">
-        <v>962.2293816994886</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T35" t="n">
-        <v>962.2293816994886</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U35" t="n">
-        <v>718.7806050553886</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V35" t="n">
-        <v>475.3318284112885</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="W35" t="n">
-        <v>475.3318284112885</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="X35" t="n">
-        <v>231.8830517671884</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="Y35" t="n">
-        <v>231.8830517671884</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>878.2251822441752</v>
+        <v>168.215552771464</v>
       </c>
       <c r="C36" t="n">
-        <v>703.7721529630483</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D36" t="n">
-        <v>554.837743301797</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>395.6002882963414</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>249.0657303232264</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7020,46 +7022,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>168.215552771464</v>
       </c>
       <c r="W36" t="n">
-        <v>964.0571555106362</v>
+        <v>168.215552771464</v>
       </c>
       <c r="X36" t="n">
-        <v>964.0571555106362</v>
+        <v>168.215552771464</v>
       </c>
       <c r="Y36" t="n">
-        <v>964.0571555106362</v>
+        <v>168.215552771464</v>
       </c>
     </row>
     <row r="37">
@@ -7069,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
         <v>19.28114311021272</v>
@@ -7129,16 +7131,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7160,10 +7162,10 @@
         <v>506.1786963984129</v>
       </c>
       <c r="F38" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="G38" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="G38" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7193,13 +7195,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T38" t="n">
         <v>749.627473042513</v>
@@ -7227,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>319.0683498528888</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>319.0683498528888</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>319.0683498528888</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>159.8308948474333</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G39" t="n">
         <v>19.28114311021272</v>
@@ -7254,10 +7256,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
         <v>473.4149733950735</v>
@@ -7275,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U39" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V39" t="n">
-        <v>846.5570557448675</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W39" t="n">
-        <v>603.1082791007675</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X39" t="n">
-        <v>395.2567788952347</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y39" t="n">
-        <v>187.4964801302808</v>
+        <v>487.2836868729568</v>
       </c>
     </row>
     <row r="40">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C41" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D41" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E41" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F41" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G41" t="n">
         <v>19.28114311021272</v>
@@ -7442,19 +7444,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V41" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W41" t="n">
-        <v>964.0571555106362</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="X41" t="n">
-        <v>749.627473042513</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y41" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="42">
@@ -7464,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>501.9060370580465</v>
+        <v>310.6614854603483</v>
       </c>
       <c r="C42" t="n">
-        <v>327.4530077769195</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D42" t="n">
         <v>178.5185981156682</v>
@@ -7494,10 +7496,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N42" t="n">
         <v>725.4530095217538</v>
@@ -7518,22 +7520,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U42" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V42" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W42" t="n">
-        <v>720.6083788665362</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="X42" t="n">
-        <v>720.6083788665362</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="Y42" t="n">
-        <v>512.8480801015824</v>
+        <v>310.6614854603483</v>
       </c>
     </row>
     <row r="43">
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
         <v>19.28114311021272</v>
@@ -7600,19 +7602,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>40.6788758079141</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C44" t="n">
-        <v>40.6788758079141</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D44" t="n">
-        <v>40.6788758079141</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E44" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F44" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G44" t="n">
         <v>19.28114311021272</v>
@@ -7670,28 +7672,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S44" t="n">
-        <v>752.9257720901863</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T44" t="n">
-        <v>527.5764290961142</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U44" t="n">
-        <v>284.1276524520142</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V44" t="n">
-        <v>284.1276524520142</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W44" t="n">
-        <v>40.6788758079141</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X44" t="n">
-        <v>40.6788758079141</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y44" t="n">
-        <v>40.6788758079141</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="45">
@@ -7701,46 +7703,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>19.28114311021272</v>
+        <v>111.1066536671728</v>
       </c>
       <c r="C45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N45" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O45" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
         <v>964.0571555106362</v>
@@ -7752,25 +7754,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>790.6398109613051</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U45" t="n">
-        <v>790.6398109613051</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V45" t="n">
-        <v>555.4877027295624</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W45" t="n">
-        <v>555.4877027295624</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="X45" t="n">
-        <v>347.6362025240296</v>
+        <v>318.8669524321267</v>
       </c>
       <c r="Y45" t="n">
-        <v>139.8759037590757</v>
+        <v>111.1066536671728</v>
       </c>
     </row>
     <row r="46">
@@ -7831,19 +7833,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
         <v>19.28114311021272</v>
@@ -7979,10 +7981,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -8067,13 +8069,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>222.4246658592332</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>168.5314335381781</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8216,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8298,10 +8300,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M6" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
@@ -8535,22 +8537,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M9" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8778,10 +8780,10 @@
         <v>312.04082470182</v>
       </c>
       <c r="N12" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9012,19 +9014,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>255.5148970497678</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N15" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9249,7 +9251,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>312.0431814381598</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
@@ -9258,7 +9260,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>303.8835549304717</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9401,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9483,13 +9485,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>359.8407857361378</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9723,10 +9725,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N24" t="n">
-        <v>357.7767872515269</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -10112,7 +10114,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10191,13 +10193,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>359.8407857361378</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
@@ -10428,25 +10430,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>356.2611315939937</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10668,22 +10670,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10823,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10902,13 +10904,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>368.5691090902119</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N39" t="n">
         <v>131.3417120833333</v>
@@ -11142,13 +11144,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>243.2069195535496</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
@@ -11376,22 +11378,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N45" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -22547,7 +22549,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>252.9439654637738</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22589,25 +22591,25 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>49.05096647893927</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>128.71681180081</v>
@@ -22623,19 +22625,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>59.75548455249177</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -22647,7 +22649,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22680,16 +22682,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>176.6302781386795</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -22723,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>115.622687458563</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22799,13 +22801,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22826,7 +22828,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -22835,19 +22837,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>2.212053182593479</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>145.2236497783945</v>
@@ -22869,13 +22871,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>82.71842236622538</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -22920,10 +22922,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>116.4754883813142</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -22942,7 +22944,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>56.32934533914265</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -22981,16 +22983,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>201.982606264288</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -23021,28 +23023,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>120.0869518323295</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23063,16 +23065,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23084,7 +23086,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23097,28 +23099,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>48.72576195918364</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23154,19 +23156,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>176.6302781386795</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23197,13 +23199,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23218,13 +23220,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23267,13 +23269,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>335.8613673013232</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>98.46051323810809</v>
+        <v>218.5474650704376</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
@@ -23355,10 +23357,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>26.25440111315061</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23397,7 +23399,7 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>10.68069428326055</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23501,7 +23503,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23510,7 +23512,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
@@ -23546,19 +23548,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U14" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W14" t="n">
-        <v>136.9555830739709</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23747,10 +23749,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23774,25 +23776,25 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>108.137662477717</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23823,7 +23825,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>102.3410493332382</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -23868,7 +23870,7 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>197.7981193194529</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -23932,7 +23934,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
         <v>177.2933913771695</v>
@@ -23944,10 +23946,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>239.2941050228172</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23972,19 +23974,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>260.2725546269769</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24014,10 +24016,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -24026,16 +24028,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>173.9525530126116</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24045,16 +24047,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>122.2378149818625</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24066,10 +24068,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>4.829496336780821</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24099,22 +24101,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24172,10 +24174,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24215,13 +24217,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24248,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24263,16 +24265,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>125.4575720412377</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24282,31 +24284,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24330,10 +24332,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>28.88219696018794</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
@@ -24351,7 +24353,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24403,13 +24405,13 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>46.82786452690794</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24424,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24440,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275656</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24503,10 +24505,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24519,13 +24521,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24534,7 +24536,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>69.05129797097572</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24570,22 +24572,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>74.8151312321375</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24649,7 +24651,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24667,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24689,16 +24691,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>158.0503210826583</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24722,28 +24724,28 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>146.6038018839531</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24771,16 +24773,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,25 +24806,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>83.98179453152261</v>
       </c>
       <c r="W30" t="n">
-        <v>247.1144340662031</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24841,10 +24843,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E31" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24926,13 +24928,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>318.2910467450428</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24968,7 +24970,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -24977,13 +24979,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>345.9756526602164</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24993,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -25005,19 +25007,19 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>61.60144464332724</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,10 +25043,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>14.84410631175096</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
@@ -25062,7 +25064,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25090,7 +25092,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H34" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
         <v>155.4504749272583</v>
@@ -25138,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25166,13 +25168,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>148.0596218681136</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25196,10 +25198,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>8.181203141508671</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -25208,7 +25210,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>86.73796959247585</v>
@@ -25217,7 +25219,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25230,31 +25232,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>81.55953011607097</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,19 +25280,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>142.8645164699222</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -25318,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25369,7 +25371,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25400,13 +25402,13 @@
         <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25433,16 +25435,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>10.81046392068936</v>
+        <v>170.6702810763838</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25476,13 +25478,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>143.2684753367462</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -25515,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>116.4754883813142</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25625,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25640,7 +25642,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25682,19 +25684,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
-        <v>157.445715035027</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25704,13 +25706,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>155.7005610367669</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>41.88704051708251</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -25758,7 +25760,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
@@ -25801,7 +25803,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H43" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I43" t="n">
         <v>155.4504749272583</v>
@@ -25840,7 +25842,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>320.3175739611883</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25871,13 +25873,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>360.7466147015374</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25910,28 +25912,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="45">
@@ -25941,10 +25943,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>47.144370607493</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>82.54783486318313</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25965,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25992,10 +25994,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>225.9413820809748</v>
@@ -26071,7 +26073,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T46" t="n">
         <v>227.9455894282815</v>
@@ -26086,7 +26088,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408644</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408641</v>
       </c>
     </row>
     <row r="14">
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99696.40351879934</v>
+        <v>99696.40351879942</v>
       </c>
       <c r="C2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.4035187994</v>
       </c>
       <c r="D2" t="n">
-        <v>99696.40351879942</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="E2" t="n">
         <v>99696.40351879942</v>
       </c>
       <c r="F2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="G2" t="n">
         <v>99696.40351879936</v>
@@ -26332,28 +26334,28 @@
         <v>99696.40351879934</v>
       </c>
       <c r="I2" t="n">
+        <v>99696.40351879934</v>
+      </c>
+      <c r="J2" t="n">
         <v>99696.40351879937</v>
       </c>
-      <c r="J2" t="n">
-        <v>99696.40351879934</v>
-      </c>
       <c r="K2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879936</v>
       </c>
       <c r="L2" t="n">
-        <v>99696.40351879934</v>
+        <v>99696.40351879936</v>
       </c>
       <c r="M2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879936</v>
       </c>
       <c r="N2" t="n">
-        <v>99696.40351879937</v>
+        <v>99696.4035187994</v>
       </c>
       <c r="O2" t="n">
         <v>99696.40351879939</v>
       </c>
       <c r="P2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879936</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26445,7 +26447,7 @@
         <v>179.5324977039669</v>
       </c>
       <c r="L4" t="n">
-        <v>179.5324977039668</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="M4" t="n">
         <v>179.5324977039669</v>
@@ -26519,19 +26521,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-29533.82927421403</v>
+        <v>-29533.82927421395</v>
       </c>
       <c r="C6" t="n">
-        <v>51235.60225733375</v>
+        <v>51235.60225733376</v>
       </c>
       <c r="D6" t="n">
-        <v>51235.60225733378</v>
+        <v>51235.60225733373</v>
       </c>
       <c r="E6" t="n">
         <v>84863.20225733377</v>
       </c>
       <c r="F6" t="n">
-        <v>84863.20225733375</v>
+        <v>84863.20225733373</v>
       </c>
       <c r="G6" t="n">
         <v>84863.20225733372</v>
@@ -26540,28 +26542,28 @@
         <v>84863.2022573337</v>
       </c>
       <c r="I6" t="n">
-        <v>84863.20225733373</v>
+        <v>84863.2022573337</v>
       </c>
       <c r="J6" t="n">
-        <v>21803.25965822748</v>
+        <v>21803.25965822751</v>
       </c>
       <c r="K6" t="n">
-        <v>84863.20225733375</v>
+        <v>84863.20225733372</v>
       </c>
       <c r="L6" t="n">
-        <v>84863.2022573337</v>
+        <v>84863.20225733372</v>
       </c>
       <c r="M6" t="n">
-        <v>84863.20225733375</v>
+        <v>84863.20225733372</v>
       </c>
       <c r="N6" t="n">
-        <v>84863.20225733373</v>
+        <v>84863.20225733376</v>
       </c>
       <c r="O6" t="n">
         <v>84863.20225733375</v>
       </c>
       <c r="P6" t="n">
-        <v>84863.20225733375</v>
+        <v>84863.20225733372</v>
       </c>
     </row>
   </sheetData>
@@ -34787,13 +34789,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35018,10 +35020,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M6" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35255,22 +35257,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M9" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35498,10 +35500,10 @@
         <v>169.9067907798017</v>
       </c>
       <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35732,19 +35734,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>113.3808631277495</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35969,7 +35971,7 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>169.9091475161415</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
@@ -35978,7 +35980,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="Q18" t="n">
         <v>70.09551364982758</v>
@@ -36203,13 +36205,13 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36443,10 +36445,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N24" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36911,13 +36913,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>217.7067518141195</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
@@ -37148,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>217.7067518141195</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37388,22 +37390,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,13 +37624,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>226.4350751681936</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37789,7 +37791,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
@@ -37862,13 +37864,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>104.6525397736754</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
@@ -38029,7 +38031,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
         <v>90.5657124162131</v>
@@ -38096,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>509551.7353335388</v>
+        <v>407299.4256466022</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.399451438</v>
+        <v>925399.3994514378</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006067</v>
+        <v>18327015.93006068</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5571875.219309996</v>
+        <v>5571875.219309997</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>112.3289263072337</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>70.64856914772001</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -791,22 +791,22 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>49.3111039422953</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>39.82778746869526</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,28 +940,28 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>220.8837963815379</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>241.0142888776591</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -986,16 +986,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1.106148923561173</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>116.325098768111</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,16 +1095,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,76 +1132,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D8" t="n">
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="Y8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G8" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1265,10 +1265,10 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>49.3111039422953</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1277,10 +1277,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H11" t="n">
-        <v>120.9273370453295</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1414,16 +1414,16 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="12">
@@ -1457,19 +1457,19 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>79.43554583325367</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -1505,13 +1505,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1569,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1654,25 +1654,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="T14" t="n">
-        <v>212.285385643442</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V14" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
       <c r="X14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>70.73885857389301</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>200.1647286948216</v>
@@ -1748,13 +1748,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1806,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1849,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1888,25 +1888,25 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>212.285385643442</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1940,13 +1940,13 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1970,25 +1970,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>35.00246782997241</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2061,10 +2061,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>94.41048699370604</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>241.0142888776591</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="W20" t="n">
         <v>241.0142888776591</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="21">
@@ -2168,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>35.40726547353844</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2210,10 +2210,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>29.05241763862484</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -2225,7 +2225,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2289,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2332,13 +2332,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>110.8731063230731</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2399,28 +2399,28 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2453,16 +2453,16 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2557,16 +2557,16 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,16 +2602,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>142.8673256144868</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2636,10 +2636,10 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2651,10 +2651,10 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>98.50381893070299</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2696,10 +2696,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>176.8798519287821</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2806,10 +2806,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
         <v>62.4162677022923</v>
       </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>241.0142888776591</v>
-      </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2885,13 +2885,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -2927,10 +2927,10 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>148.8187926179027</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
@@ -2955,16 +2955,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3034,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3043,11 +3043,11 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
@@ -3073,31 +3073,31 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="W32" t="n">
-        <v>3.265316057196634</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3116,7 +3116,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -3125,13 +3125,13 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>50.63399959316922</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3155,16 +3155,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>164.2649454001334</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3176,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3246,13 +3246,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3274,19 +3274,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3350,25 +3350,25 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>78.19622121383929</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3395,19 +3395,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>89.93607067950306</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3547,19 +3547,19 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>52.42556848774752</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3590,22 +3590,22 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>1.800737056637706</v>
+        <v>44.6546398735026</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3629,22 +3629,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3748,13 +3748,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G41" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3784,25 +3784,25 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3821,13 +3821,13 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>130.8214584712332</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3872,10 +3872,10 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>89.23479522590742</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3954,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,11 +3976,11 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
         <v>62.4162677022923</v>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
@@ -3988,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4036,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4058,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>90.16066412513261</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4109,16 +4109,16 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>49.31110394229507</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>132.7447050367114</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>601.5428246748836</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T2" t="n">
-        <v>376.1934816808115</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U2" t="n">
-        <v>376.1934816808115</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V2" t="n">
-        <v>376.1934816808115</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W2" t="n">
-        <v>376.1934816808115</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X2" t="n">
-        <v>132.7447050367114</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y2" t="n">
-        <v>132.7447050367114</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.03527576299844</v>
+        <v>90.64333416851576</v>
       </c>
       <c r="C3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4415,19 +4415,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>383.2428491569326</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N3" t="n">
-        <v>621.8469951458151</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>860.4511411346975</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4439,22 +4439,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U3" t="n">
-        <v>914.2479596093278</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V3" t="n">
-        <v>679.0958513775852</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W3" t="n">
-        <v>435.6470747334852</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="X3" t="n">
-        <v>227.7955745279523</v>
+        <v>90.64333416851576</v>
       </c>
       <c r="Y3" t="n">
-        <v>20.03527576299844</v>
+        <v>90.64333416851576</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
         <v>19.28114311021272</v>
@@ -4527,13 +4527,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C5" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D5" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T5" t="n">
-        <v>730.8505943024719</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U5" t="n">
-        <v>487.4018176583718</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V5" t="n">
-        <v>487.4018176583718</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W5" t="n">
-        <v>487.4018176583718</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="X5" t="n">
-        <v>487.4018176583718</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="Y5" t="n">
-        <v>243.9530410142718</v>
+        <v>114.6452713866835</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>110.6980943980675</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I6" t="n">
         <v>19.28114311021272</v>
@@ -4652,19 +4652,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>542.809531908403</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4679,19 +4679,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V6" t="n">
-        <v>846.5570557448675</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W6" t="n">
-        <v>603.1082791007675</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X6" t="n">
-        <v>395.2567788952347</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y6" t="n">
-        <v>187.4964801302808</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C8" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D8" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E8" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F8" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G8" t="n">
         <v>19.28114311021272</v>
@@ -4846,10 +4846,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y8" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4889,7 +4889,7 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
         <v>473.4149733950735</v>
@@ -4913,22 +4913,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U9" t="n">
-        <v>914.2479596093278</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V9" t="n">
-        <v>679.0958513775852</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W9" t="n">
-        <v>435.6470747334852</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X9" t="n">
-        <v>227.7955745279523</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -5001,13 +5001,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>366.1018663125844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C11" t="n">
-        <v>366.1018663125844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D11" t="n">
-        <v>366.1018663125844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E11" t="n">
-        <v>366.1018663125844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F11" t="n">
-        <v>366.1018663125844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G11" t="n">
-        <v>366.1018663125844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5062,31 +5062,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U11" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V11" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W11" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X11" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y11" t="n">
-        <v>366.1018663125844</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.28114311021272</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="C12" t="n">
-        <v>19.28114311021272</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="D12" t="n">
-        <v>19.28114311021272</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="E12" t="n">
-        <v>19.28114311021272</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F12" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G12" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I12" t="n">
         <v>19.28114311021272</v>
@@ -5126,46 +5126,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M12" t="n">
-        <v>542.809531908403</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N12" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O12" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P12" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T12" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U12" t="n">
-        <v>259.0600686093459</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V12" t="n">
-        <v>23.90796037760316</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W12" t="n">
-        <v>19.28114311021272</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X12" t="n">
-        <v>19.28114311021272</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.28114311021272</v>
+        <v>588.4532163200711</v>
       </c>
     </row>
     <row r="13">
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F13" t="n">
         <v>19.28114311021272</v>
@@ -5217,34 +5217,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C14" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D14" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E14" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F14" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G14" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H14" t="n">
         <v>19.28114311021272</v>
@@ -5302,28 +5302,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T14" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U14" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="V14" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W14" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="X14" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y14" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="15">
@@ -5366,40 +5366,40 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N15" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O15" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P15" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>862.8876260635219</v>
+        <v>892.6037630117544</v>
       </c>
       <c r="S15" t="n">
-        <v>689.4702815141908</v>
+        <v>892.6037630117544</v>
       </c>
       <c r="T15" t="n">
-        <v>487.2836868729568</v>
+        <v>690.4171683705204</v>
       </c>
       <c r="U15" t="n">
-        <v>259.0600686093459</v>
+        <v>462.1935501069094</v>
       </c>
       <c r="V15" t="n">
-        <v>23.90796037760316</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="W15" t="n">
-        <v>19.28114311021272</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X15" t="n">
-        <v>19.28114311021272</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y15" t="n">
         <v>19.28114311021272</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G16" t="n">
         <v>19.28114311021272</v>
@@ -5454,34 +5454,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>749.627473042513</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U17" t="n">
-        <v>506.1786963984129</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V17" t="n">
-        <v>262.7299197543128</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>223.7040404982626</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C18" t="n">
-        <v>223.7040404982626</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D18" t="n">
-        <v>223.7040404982626</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="E18" t="n">
-        <v>223.7040404982626</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="F18" t="n">
-        <v>223.7040404982626</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>249.2442489785619</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N18" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>726.4525409563269</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V18" t="n">
-        <v>223.7040404982626</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W18" t="n">
-        <v>223.7040404982626</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X18" t="n">
-        <v>223.7040404982626</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.7040404982626</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="19">
@@ -5709,7 +5709,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>114.6452713866835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C20" t="n">
-        <v>114.6452713866835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
         <v>19.28114311021272</v>
@@ -5779,25 +5779,25 @@
         <v>812.6742080953335</v>
       </c>
       <c r="S20" t="n">
-        <v>601.5428246748836</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T20" t="n">
-        <v>601.5428246748836</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U20" t="n">
-        <v>601.5428246748836</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V20" t="n">
-        <v>358.0940480307835</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W20" t="n">
-        <v>114.6452713866835</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X20" t="n">
-        <v>114.6452713866835</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y20" t="n">
-        <v>114.6452713866835</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="21">
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>55.04605772994853</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C21" t="n">
-        <v>55.04605772994853</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D21" t="n">
-        <v>55.04605772994853</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>249.2442489785619</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5858,25 +5858,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="T21" t="n">
-        <v>761.8705608694022</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="U21" t="n">
-        <v>533.6469426057913</v>
+        <v>706.487660844374</v>
       </c>
       <c r="V21" t="n">
-        <v>298.4948343740486</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W21" t="n">
-        <v>55.04605772994853</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X21" t="n">
-        <v>55.04605772994853</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y21" t="n">
-        <v>55.04605772994853</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="22">
@@ -5937,16 +5937,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
         <v>19.28114311021272</v>
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K23" t="n">
         <v>122.2961490211351</v>
@@ -6013,28 +6013,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="V23" t="n">
-        <v>749.627473042513</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="W23" t="n">
-        <v>506.1786963984129</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="X23" t="n">
-        <v>262.7299197543128</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="Y23" t="n">
-        <v>19.28114311021272</v>
+        <v>587.3248651012614</v>
       </c>
     </row>
     <row r="24">
@@ -6044,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
         <v>473.4149733950735</v>
@@ -6092,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V24" t="n">
-        <v>964.0571555106362</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W24" t="n">
-        <v>964.0571555106362</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X24" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y24" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6171,19 +6171,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
         <v>19.28114311021272</v>
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>964.0571555106362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="C26" t="n">
-        <v>749.627473042513</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D26" t="n">
-        <v>506.1786963984129</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E26" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6250,28 +6250,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="W26" t="n">
-        <v>964.0571555106362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="X26" t="n">
-        <v>964.0571555106362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="Y26" t="n">
-        <v>964.0571555106362</v>
+        <v>231.8830517671884</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>168.9696854242497</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="C27" t="n">
-        <v>168.9696854242497</v>
+        <v>209.8337119065521</v>
       </c>
       <c r="D27" t="n">
-        <v>20.03527576299844</v>
+        <v>209.8337119065521</v>
       </c>
       <c r="E27" t="n">
-        <v>20.03527576299844</v>
+        <v>209.8337119065521</v>
       </c>
       <c r="F27" t="n">
-        <v>20.03527576299844</v>
+        <v>209.8337119065521</v>
       </c>
       <c r="G27" t="n">
-        <v>20.03527576299844</v>
+        <v>209.8337119065521</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I27" t="n">
         <v>20.03527576299844</v>
@@ -6311,13 +6311,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O27" t="n">
         <v>712.019119383956</v>
@@ -6329,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T27" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U27" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V27" t="n">
-        <v>555.4877027295624</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W27" t="n">
-        <v>376.8211856297825</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X27" t="n">
-        <v>168.9696854242497</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="Y27" t="n">
-        <v>168.9696854242497</v>
+        <v>384.2867411876791</v>
       </c>
     </row>
     <row r="28">
@@ -6411,7 +6411,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
         <v>19.28114311021272</v>
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6490,25 +6490,25 @@
         <v>812.6742080953335</v>
       </c>
       <c r="S29" t="n">
+        <v>812.6742080953335</v>
+      </c>
+      <c r="T29" t="n">
+        <v>812.6742080953335</v>
+      </c>
+      <c r="U29" t="n">
+        <v>812.6742080953335</v>
+      </c>
+      <c r="V29" t="n">
+        <v>812.6742080953335</v>
+      </c>
+      <c r="W29" t="n">
         <v>749.627473042513</v>
       </c>
-      <c r="T29" t="n">
+      <c r="X29" t="n">
         <v>749.627473042513</v>
       </c>
-      <c r="U29" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="V29" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="W29" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="X29" t="n">
-        <v>19.28114311021272</v>
-      </c>
       <c r="Y29" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C30" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D30" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E30" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F30" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
         <v>20.03527576299844</v>
@@ -6548,19 +6548,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>144.6387031680501</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M30" t="n">
-        <v>234.810827406191</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6575,19 +6575,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V30" t="n">
-        <v>813.73514276528</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W30" t="n">
-        <v>570.28636612118</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X30" t="n">
-        <v>362.4348659156472</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y30" t="n">
-        <v>362.4348659156472</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="31">
@@ -6603,13 +6603,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G31" t="n">
         <v>19.28114311021272</v>
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D32" t="n">
         <v>262.7299197543128</v>
@@ -6691,7 +6691,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S32" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T32" t="n">
-        <v>752.9257720901863</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U32" t="n">
-        <v>752.9257720901863</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V32" t="n">
-        <v>752.9257720901863</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W32" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X32" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>790.6398109613051</v>
+        <v>489.203140025706</v>
       </c>
       <c r="C33" t="n">
-        <v>616.1867816801781</v>
+        <v>314.750110744579</v>
       </c>
       <c r="D33" t="n">
-        <v>467.2523720189268</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E33" t="n">
-        <v>308.0149170134713</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F33" t="n">
-        <v>161.4803590403563</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>161.4803590403563</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6791,10 +6791,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>613.2059550252818</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
         <v>964.0571555106362</v>
@@ -6803,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U33" t="n">
-        <v>790.6398109613051</v>
+        <v>696.9634387906599</v>
       </c>
       <c r="V33" t="n">
-        <v>790.6398109613051</v>
+        <v>696.9634387906599</v>
       </c>
       <c r="W33" t="n">
-        <v>790.6398109613051</v>
+        <v>696.9634387906599</v>
       </c>
       <c r="X33" t="n">
-        <v>790.6398109613051</v>
+        <v>696.9634387906599</v>
       </c>
       <c r="Y33" t="n">
-        <v>790.6398109613051</v>
+        <v>489.203140025706</v>
       </c>
     </row>
     <row r="34">
@@ -6894,10 +6894,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
         <v>19.28114311021272</v>
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>569.2254314512334</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C35" t="n">
-        <v>569.2254314512334</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D35" t="n">
-        <v>569.2254314512334</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E35" t="n">
-        <v>569.2254314512334</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F35" t="n">
-        <v>569.2254314512334</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
-        <v>325.7766548071333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>82.32787816303323</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
@@ -6961,28 +6961,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>569.2254314512334</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>569.2254314512334</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
-        <v>569.2254314512334</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y35" t="n">
-        <v>569.2254314512334</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>168.215552771464</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="C36" t="n">
-        <v>168.215552771464</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>237.752183214564</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>99.02135779717955</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7025,16 +7025,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N36" t="n">
-        <v>851.8101010141643</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O36" t="n">
-        <v>851.8101010141643</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7043,25 +7043,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T36" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U36" t="n">
-        <v>259.0600686093459</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V36" t="n">
-        <v>168.215552771464</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W36" t="n">
-        <v>168.215552771464</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X36" t="n">
-        <v>168.215552771464</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="Y36" t="n">
-        <v>168.215552771464</v>
+        <v>384.2867411876791</v>
       </c>
     </row>
     <row r="37">
@@ -7119,16 +7119,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
         <v>19.28114311021272</v>
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C38" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D38" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F38" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S38" t="n">
-        <v>802.5825927271064</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T38" t="n">
-        <v>749.627473042513</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U38" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V38" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W38" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X38" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y38" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>319.0683498528888</v>
+        <v>317.2409336147255</v>
       </c>
       <c r="C39" t="n">
-        <v>319.0683498528888</v>
+        <v>317.2409336147255</v>
       </c>
       <c r="D39" t="n">
-        <v>319.0683498528888</v>
+        <v>317.2409336147255</v>
       </c>
       <c r="E39" t="n">
-        <v>159.8308948474333</v>
+        <v>317.2409336147255</v>
       </c>
       <c r="F39" t="n">
-        <v>158.0119685275972</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7262,43 +7262,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V39" t="n">
-        <v>487.2836868729568</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W39" t="n">
-        <v>487.2836868729568</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X39" t="n">
-        <v>487.2836868729568</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="Y39" t="n">
-        <v>487.2836868729568</v>
+        <v>485.4562706347935</v>
       </c>
     </row>
     <row r="40">
@@ -7365,10 +7365,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
         <v>19.28114311021272</v>
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>233.7108255783361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C41" t="n">
-        <v>233.7108255783361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D41" t="n">
-        <v>233.7108255783361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E41" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F41" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G41" t="n">
         <v>19.28114311021272</v>
@@ -7432,31 +7432,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U41" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V41" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W41" t="n">
-        <v>233.7108255783361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X41" t="n">
-        <v>233.7108255783361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y41" t="n">
-        <v>233.7108255783361</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="42">
@@ -7466,40 +7466,40 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>310.6614854603483</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C42" t="n">
-        <v>178.5185981156682</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D42" t="n">
-        <v>178.5185981156682</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N42" t="n">
         <v>725.4530095217538</v>
@@ -7520,22 +7520,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>761.8705608694022</v>
+        <v>873.9209987167903</v>
       </c>
       <c r="U42" t="n">
-        <v>761.8705608694022</v>
+        <v>645.6973804531794</v>
       </c>
       <c r="V42" t="n">
-        <v>761.8705608694022</v>
+        <v>645.6973804531794</v>
       </c>
       <c r="W42" t="n">
-        <v>518.4217842253022</v>
+        <v>402.2486038090794</v>
       </c>
       <c r="X42" t="n">
-        <v>518.4217842253022</v>
+        <v>402.2486038090794</v>
       </c>
       <c r="Y42" t="n">
-        <v>310.6614854603483</v>
+        <v>194.4883050441255</v>
       </c>
     </row>
     <row r="43">
@@ -7602,10 +7602,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
         <v>19.28114311021272</v>
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>506.1786963984129</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="C44" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D44" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E44" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
         <v>19.28114311021272</v>
@@ -7660,40 +7660,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>725.2021500759372</v>
+        <v>725.2021500759371</v>
       </c>
       <c r="O44" t="n">
-        <v>874.3971002185853</v>
+        <v>874.3971002185851</v>
       </c>
       <c r="P44" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q44" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R44" t="n">
-        <v>812.6742080953335</v>
+        <v>812.6742080953333</v>
       </c>
       <c r="S44" t="n">
-        <v>812.6742080953335</v>
+        <v>812.6742080953333</v>
       </c>
       <c r="T44" t="n">
-        <v>812.6742080953335</v>
+        <v>812.6742080953333</v>
       </c>
       <c r="U44" t="n">
-        <v>812.6742080953335</v>
+        <v>812.6742080953333</v>
       </c>
       <c r="V44" t="n">
-        <v>812.6742080953335</v>
+        <v>569.2254314512332</v>
       </c>
       <c r="W44" t="n">
-        <v>812.6742080953335</v>
+        <v>325.7766548071332</v>
       </c>
       <c r="X44" t="n">
-        <v>812.6742080953335</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="Y44" t="n">
-        <v>569.2254314512334</v>
+        <v>82.32787816303323</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>111.1066536671728</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="C45" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="D45" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="E45" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="F45" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="G45" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="H45" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363992</v>
       </c>
       <c r="M45" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252816</v>
       </c>
       <c r="N45" t="n">
-        <v>542.809531908403</v>
+        <v>712.0191193839557</v>
       </c>
       <c r="O45" t="n">
-        <v>781.4136778972854</v>
+        <v>712.0191193839557</v>
       </c>
       <c r="P45" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973067</v>
       </c>
       <c r="Q45" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T45" t="n">
-        <v>761.8705608694022</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U45" t="n">
-        <v>761.8705608694022</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V45" t="n">
-        <v>526.7184526376595</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W45" t="n">
-        <v>526.7184526376595</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X45" t="n">
-        <v>318.8669524321267</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y45" t="n">
-        <v>111.1066536671728</v>
+        <v>20.03527576299843</v>
       </c>
     </row>
     <row r="46">
@@ -7833,7 +7833,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
         <v>19.28114311021272</v>
@@ -7984,7 +7984,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -8063,22 +8063,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>168.5314335381781</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8300,22 +8300,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,10 +8537,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N9" t="n">
         <v>131.3417120833333</v>
@@ -8774,13 +8774,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>312.04082470182</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
         <v>383.6105333221035</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9014,19 +9014,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>241.9453110519923</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>303.8835549304717</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9403,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9482,16 +9482,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N21" t="n">
-        <v>357.7767872515269</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,13 +9719,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>368.5691090902119</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N24" t="n">
         <v>131.3417120833333</v>
@@ -9959,16 +9959,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10114,7 +10114,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10196,13 +10196,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M30" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10439,13 +10439,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>312.5030352242461</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10673,19 +10673,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>177.2597568922521</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10825,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10910,7 +10910,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>241.9453110519923</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N39" t="n">
         <v>131.3417120833333</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11150,7 +11150,7 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>244.7225752110828</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
@@ -11378,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996773</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O45" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22549,7 +22549,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>252.9439654637738</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22591,28 +22591,28 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>156.5945010984978</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22628,7 +22628,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>102.0599298405957</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22649,7 +22649,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22679,22 +22679,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>176.6302781386795</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22725,10 +22725,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>115.622687458563</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>288.3233546697745</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22804,10 +22804,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,19 +22828,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>2.212053182593479</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22849,7 +22849,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
         <v>145.2236497783945</v>
@@ -22862,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -22874,16 +22874,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>136.2373682396495</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -22919,19 +22919,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>116.4754883813142</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22968,7 +22968,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,16 +22983,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>201.982606264288</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23020,22 +23020,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>203.0173518716929</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23086,10 +23086,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23123,7 +23123,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23153,10 +23153,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>176.6302781386795</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -23165,10 +23165,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>170.365719729939</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23199,13 +23199,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23266,22 +23266,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
-        <v>218.5474650704376</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23302,16 +23302,16 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="12">
@@ -23345,19 +23345,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>78.20953462214727</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -23393,13 +23393,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23427,7 +23427,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G13" t="n">
         <v>167.9909793584588</v>
@@ -23457,13 +23457,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23512,7 +23512,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
@@ -23542,25 +23542,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="T14" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X14" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23621,10 +23621,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.41897557875012</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23636,13 +23636,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H16" t="n">
         <v>162.2271725074396</v>
@@ -23694,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23737,7 +23737,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>252.344814527994</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -23746,7 +23746,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
@@ -23776,25 +23776,25 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23828,13 +23828,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>82.43643527161383</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,25 +23858,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>197.7981193194529</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23949,10 +23949,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>260.2725546269769</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -24028,7 +24028,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>265.3359907678426</v>
       </c>
       <c r="W20" t="n">
         <v>108.226679839754</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24056,7 +24056,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>122.2378149818625</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24071,7 +24071,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24098,10 +24098,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>142.630753465213</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24113,7 +24113,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24177,7 +24177,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24189,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24220,13 +24220,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>228.601695792694</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24253,28 +24253,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24287,28 +24287,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>70.35882518776062</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
@@ -24341,16 +24341,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24411,7 +24411,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24445,16 +24445,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>152.9875061275656</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
@@ -24463,7 +24463,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24490,16 +24490,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>108.4783272933497</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24524,10 +24524,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24539,10 +24539,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>13.73162530579347</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,10 +24569,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
@@ -24584,10 +24584,10 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>74.8151312321375</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24651,10 +24651,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U28" t="n">
         <v>286.3190293564909</v>
@@ -24682,7 +24682,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24694,10 +24694,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>146.6038018839531</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>286.8247010151207</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>137.4807660112426</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24773,13 +24773,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24815,10 +24815,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>83.98179453152261</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
@@ -24843,7 +24843,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H31" t="n">
         <v>162.2271725074396</v>
@@ -24922,7 +24922,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24931,10 +24931,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24961,31 +24961,31 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>257.4082506688596</v>
       </c>
       <c r="W32" t="n">
-        <v>345.9756526602164</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25004,7 +25004,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -25013,13 +25013,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>61.60144464332724</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25043,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>61.67643668084145</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -25064,7 +25064,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25134,13 +25134,13 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200386</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25162,19 +25162,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>148.0596218681136</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25201,7 +25201,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -25213,7 +25213,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25238,25 +25238,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>34.03922302265717</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25283,19 +25283,19 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>142.8645164699222</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -25359,7 +25359,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25371,7 +25371,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25399,7 +25399,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25408,7 +25408,7 @@
         <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25435,19 +25435,19 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>170.6702810763838</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>139.0167266006028</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25478,22 +25478,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>143.2684753367462</v>
+        <v>100.4145725198813</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25517,22 +25517,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -25605,13 +25605,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25636,13 +25636,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
-        <v>203.0173518716929</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25672,25 +25672,25 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>6.725383157348119</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25709,13 +25709,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>41.88704051708251</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25730,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25760,10 +25760,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>110.9299334689142</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25842,13 +25842,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>320.3175739611883</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>302.8566240687152</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25876,10 +25876,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25924,16 +25924,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247591</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25946,7 +25946,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>82.54783486318313</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25997,16 +25997,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>176.6302781386798</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326061</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U46" t="n">
         <v>286.3190293564909</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408641</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="4">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>481865.9503408641</v>
+        <v>481865.9503408644</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408641</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99696.40351879942</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="C2" t="n">
-        <v>99696.4035187994</v>
+        <v>99696.40351879936</v>
       </c>
       <c r="D2" t="n">
-        <v>99696.40351879937</v>
+        <v>99696.40351879936</v>
       </c>
       <c r="E2" t="n">
-        <v>99696.40351879942</v>
+        <v>99696.40351879936</v>
       </c>
       <c r="F2" t="n">
         <v>99696.40351879937</v>
       </c>
       <c r="G2" t="n">
-        <v>99696.40351879936</v>
+        <v>99696.40351879942</v>
       </c>
       <c r="H2" t="n">
+        <v>99696.40351879939</v>
+      </c>
+      <c r="I2" t="n">
+        <v>99696.40351879939</v>
+      </c>
+      <c r="J2" t="n">
         <v>99696.40351879934</v>
       </c>
-      <c r="I2" t="n">
-        <v>99696.40351879934</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>99696.4035187994</v>
+      </c>
+      <c r="L2" t="n">
+        <v>99696.4035187994</v>
+      </c>
+      <c r="M2" t="n">
         <v>99696.40351879937</v>
       </c>
-      <c r="K2" t="n">
-        <v>99696.40351879936</v>
-      </c>
-      <c r="L2" t="n">
-        <v>99696.40351879936</v>
-      </c>
-      <c r="M2" t="n">
-        <v>99696.40351879936</v>
-      </c>
       <c r="N2" t="n">
+        <v>99696.40351879939</v>
+      </c>
+      <c r="O2" t="n">
         <v>99696.4035187994</v>
-      </c>
-      <c r="O2" t="n">
-        <v>99696.40351879939</v>
       </c>
       <c r="P2" t="n">
         <v>99696.40351879936</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-29533.82927421395</v>
+        <v>-41751.83989425444</v>
       </c>
       <c r="C6" t="n">
-        <v>51235.60225733376</v>
+        <v>39017.59163729326</v>
       </c>
       <c r="D6" t="n">
-        <v>51235.60225733373</v>
+        <v>39017.59163729326</v>
       </c>
       <c r="E6" t="n">
-        <v>84863.20225733377</v>
+        <v>72645.19163729325</v>
       </c>
       <c r="F6" t="n">
-        <v>84863.20225733373</v>
+        <v>72645.19163729326</v>
       </c>
       <c r="G6" t="n">
-        <v>84863.20225733372</v>
+        <v>72645.1916372933</v>
       </c>
       <c r="H6" t="n">
-        <v>84863.2022573337</v>
+        <v>72645.19163729328</v>
       </c>
       <c r="I6" t="n">
-        <v>84863.2022573337</v>
+        <v>72645.19163729328</v>
       </c>
       <c r="J6" t="n">
-        <v>21803.25965822751</v>
+        <v>9585.249038187012</v>
       </c>
       <c r="K6" t="n">
-        <v>84863.20225733372</v>
+        <v>72645.19163729329</v>
       </c>
       <c r="L6" t="n">
-        <v>84863.20225733372</v>
+        <v>72645.19163729329</v>
       </c>
       <c r="M6" t="n">
-        <v>84863.20225733372</v>
+        <v>72645.19163729326</v>
       </c>
       <c r="N6" t="n">
-        <v>84863.20225733376</v>
+        <v>72645.19163729328</v>
       </c>
       <c r="O6" t="n">
-        <v>84863.20225733375</v>
+        <v>72645.19163729329</v>
       </c>
       <c r="P6" t="n">
-        <v>84863.20225733372</v>
+        <v>72645.19163729325</v>
       </c>
     </row>
   </sheetData>
@@ -26831,7 +26831,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
     </row>
   </sheetData>
@@ -34783,22 +34783,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>34.55702612384782</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35020,22 +35020,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35257,10 +35257,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35494,13 +35494,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>169.9067907798017</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
         <v>241.0142888776591</v>
@@ -35509,7 +35509,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35655,7 +35655,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N14" t="n">
         <v>207.9338608153932</v>
@@ -35734,19 +35734,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>99.81127712997396</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>169.9091475161414</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,16 +36202,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N21" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36220,7 +36220,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,13 +36439,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>226.4350751681936</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36679,16 +36679,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36916,13 +36916,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M30" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -36931,7 +36931,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37159,13 +37159,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>169.9067907798016</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37393,19 +37393,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37630,7 +37630,7 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>99.81127712997396</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
@@ -37870,7 +37870,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>113.3808631277494</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>55.51629994036225</v>
+        <v>241.014288877659</v>
       </c>
       <c r="N45" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>407299.4256466022</v>
+        <v>499301.2742297005</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5571875.219309997</v>
+        <v>5571875.219309996</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="3">
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>70.64856914772001</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -800,10 +800,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>94.41048699370604</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>241.0142888776591</v>
@@ -986,19 +986,19 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.106148923561173</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="7">
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1177,10 +1177,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>241.0142888776591</v>
@@ -1220,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -1277,7 +1277,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>35.40726547353844</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1381,53 +1381,53 @@
         <v>241.0142888776591</v>
       </c>
       <c r="F11" t="n">
+        <v>84.41978777916125</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R11" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S11" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G11" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1457,22 +1457,22 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>79.43554583325367</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>83.31062861576181</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1539,55 +1539,55 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1609,22 +1609,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1651,25 +1651,25 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>80.33470701582003</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="W14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1733,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>70.73885857389301</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>29.8892983910557</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
@@ -1748,7 +1748,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1843,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1867,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1891,13 +1891,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1906,10 +1906,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>190.3453970742849</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1940,13 +1940,13 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1991,7 +1991,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="19">
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2137,19 +2137,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -2210,10 +2210,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>29.05241763862484</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>145.4287699906872</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -2225,7 +2225,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2329,16 +2329,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
-        <v>110.8731063230731</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2362,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="24">
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>29.79900896488251</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2465,7 +2465,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2569,16 +2569,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>100.3796369526212</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>142.8673256144868</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2651,13 +2651,13 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>98.50381893070299</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2681,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>152.0246714969779</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2766,16 +2766,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,28 +2794,28 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2836,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -2854,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>40.47627913313517</v>
       </c>
     </row>
     <row r="30">
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>29.05241763862477</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
@@ -2936,7 +2936,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>34.66067414728059</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2964,40 +2964,40 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3034,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -3088,10 +3088,10 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>70.34400780127524</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3110,16 +3110,16 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3155,22 +3155,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>164.2649454001334</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>70.73885857389313</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3246,10 +3246,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3274,61 +3274,61 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="U35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F35" t="n">
+      <c r="V35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G35" t="n">
+      <c r="W35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3350,25 +3350,25 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>78.19622121383929</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3392,16 +3392,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>88.12692860372125</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>112.3289263072337</v>
+        <v>100.3796369526212</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3593,13 +3593,13 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>44.6546398735026</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3638,19 +3638,19 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>64.38401073897947</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3723,10 +3723,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="X40" t="n">
-        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3763,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3799,10 +3799,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3821,10 +3821,10 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3872,22 +3872,22 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>89.23479522590742</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>87.38033727746352</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3991,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4021,28 +4021,28 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="V44" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4064,16 +4064,16 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4103,28 +4103,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>81.96584385420461</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>49.31110394229507</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="V2" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="W2" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="X2" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="V2" t="n">
+      <c r="Y2" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="W2" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="X2" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="3">
@@ -4385,7 +4385,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>90.64333416851576</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
         <v>19.28114311021272</v>
@@ -4418,13 +4418,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
         <v>964.0571555106362</v>
@@ -4433,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>761.8705608694022</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U3" t="n">
-        <v>533.6469426057913</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V3" t="n">
-        <v>298.4948343740486</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W3" t="n">
-        <v>298.4948343740486</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X3" t="n">
-        <v>90.64333416851576</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y3" t="n">
-        <v>90.64333416851576</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
         <v>19.28114311021272</v>
@@ -4527,13 +4527,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19.28114311021272</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="C5" t="n">
-        <v>19.28114311021272</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="D5" t="n">
         <v>19.28114311021272</v>
@@ -4594,25 +4594,25 @@
         <v>812.6742080953335</v>
       </c>
       <c r="S5" t="n">
-        <v>601.5428246748836</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T5" t="n">
-        <v>601.5428246748836</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U5" t="n">
-        <v>601.5428246748836</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V5" t="n">
-        <v>601.5428246748836</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W5" t="n">
-        <v>601.5428246748836</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X5" t="n">
-        <v>358.0940480307835</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y5" t="n">
-        <v>114.6452713866835</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>257.2326523711826</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C6" t="n">
-        <v>257.2326523711826</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D6" t="n">
-        <v>257.2326523711826</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E6" t="n">
-        <v>257.2326523711826</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>110.6980943980675</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4655,16 +4655,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>613.2059550252818</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4688,10 +4688,10 @@
         <v>257.2326523711826</v>
       </c>
       <c r="X6" t="n">
-        <v>257.2326523711826</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y6" t="n">
-        <v>257.2326523711826</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="7">
@@ -4752,16 +4752,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
         <v>19.28114311021272</v>
@@ -4780,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>262.7299197543128</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C8" t="n">
-        <v>262.7299197543128</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D8" t="n">
         <v>262.7299197543128</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X8" t="n">
-        <v>720.6083788665362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y8" t="n">
-        <v>477.1596022224361</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="9">
@@ -4859,13 +4859,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="E9" t="n">
         <v>19.28114311021272</v>
@@ -4886,22 +4886,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4913,22 +4913,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>533.6469426057913</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V9" t="n">
-        <v>298.4948343740486</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W9" t="n">
-        <v>55.04605772994853</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X9" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="10">
@@ -5001,7 +5001,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
         <v>19.28114311021272</v>
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>749.627473042513</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="C11" t="n">
-        <v>749.627473042513</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="D11" t="n">
-        <v>749.627473042513</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="E11" t="n">
-        <v>506.1786963984129</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="F11" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
         <v>19.28114311021272</v>
@@ -5062,31 +5062,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T11" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U11" t="n">
-        <v>964.0571555106362</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="V11" t="n">
-        <v>964.0571555106362</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="W11" t="n">
-        <v>964.0571555106362</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X11" t="n">
-        <v>964.0571555106362</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="Y11" t="n">
-        <v>749.627473042513</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>588.4532163200711</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C12" t="n">
-        <v>588.4532163200711</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D12" t="n">
-        <v>588.4532163200711</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E12" t="n">
-        <v>508.2152912359765</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F12" t="n">
-        <v>361.6807332628614</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G12" t="n">
-        <v>222.9499078454769</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H12" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
@@ -5126,10 +5126,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N12" t="n">
         <v>473.4149733950735</v>
@@ -5150,22 +5150,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T12" t="n">
-        <v>588.4532163200711</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U12" t="n">
-        <v>588.4532163200711</v>
+        <v>706.487660844374</v>
       </c>
       <c r="V12" t="n">
-        <v>588.4532163200711</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W12" t="n">
-        <v>588.4532163200711</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X12" t="n">
-        <v>588.4532163200711</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y12" t="n">
-        <v>588.4532163200711</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="13">
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
         <v>19.28114311021272</v>
@@ -5235,16 +5235,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C14" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D14" t="n">
         <v>262.7299197543128</v>
@@ -5266,10 +5266,10 @@
         <v>262.7299197543128</v>
       </c>
       <c r="F14" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G14" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
         <v>19.28114311021272</v>
@@ -5299,31 +5299,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S14" t="n">
-        <v>731.528039392485</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T14" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U14" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V14" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W14" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X14" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y14" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="15">
@@ -5381,19 +5381,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>892.6037630117544</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>892.6037630117544</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>690.4171683705204</v>
+        <v>933.8659450146204</v>
       </c>
       <c r="U15" t="n">
-        <v>462.1935501069094</v>
+        <v>705.6423267510095</v>
       </c>
       <c r="V15" t="n">
-        <v>227.0414418751666</v>
+        <v>470.4902185192667</v>
       </c>
       <c r="W15" t="n">
         <v>227.0414418751666</v>
@@ -5415,16 +5415,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="C16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
         <v>19.28114311021272</v>
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>366.1018663125844</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C17" t="n">
-        <v>366.1018663125844</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D17" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E17" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F17" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5539,28 +5539,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U17" t="n">
-        <v>366.1018663125844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V17" t="n">
-        <v>366.1018663125844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W17" t="n">
-        <v>366.1018663125844</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X17" t="n">
-        <v>366.1018663125844</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y17" t="n">
-        <v>366.1018663125844</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="18">
@@ -5570,46 +5570,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>49.38115216564972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C18" t="n">
-        <v>49.38115216564972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D18" t="n">
-        <v>49.38115216564972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E18" t="n">
-        <v>49.38115216564972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F18" t="n">
-        <v>49.38115216564972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G18" t="n">
-        <v>49.38115216564972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
         <v>964.0571555106362</v>
@@ -5639,7 +5639,7 @@
         <v>49.38115216564972</v>
       </c>
       <c r="Y18" t="n">
-        <v>49.38115216564972</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="19">
@@ -5703,13 +5703,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5785,16 +5785,16 @@
         <v>812.6742080953335</v>
       </c>
       <c r="U20" t="n">
-        <v>812.6742080953335</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="V20" t="n">
-        <v>749.627473042513</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="W20" t="n">
-        <v>506.1786963984129</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="X20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y20" t="n">
         <v>262.7299197543128</v>
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C21" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D21" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E21" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F21" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G21" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I21" t="n">
         <v>20.03527576299844</v>
@@ -5834,22 +5834,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5858,25 +5858,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>934.7112791079849</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>934.7112791079849</v>
+        <v>817.1594080452955</v>
       </c>
       <c r="U21" t="n">
-        <v>706.487660844374</v>
+        <v>588.9357897816847</v>
       </c>
       <c r="V21" t="n">
-        <v>471.3355526126313</v>
+        <v>353.783681549942</v>
       </c>
       <c r="W21" t="n">
-        <v>227.8867759685313</v>
+        <v>110.334904905842</v>
       </c>
       <c r="X21" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="Y21" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
     </row>
     <row r="22">
@@ -5934,19 +5934,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
         <v>19.28114311021272</v>
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>587.3248651012614</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C23" t="n">
-        <v>587.3248651012614</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D23" t="n">
-        <v>587.3248651012614</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E23" t="n">
-        <v>587.3248651012614</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F23" t="n">
-        <v>587.3248651012614</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
-        <v>343.8760884571613</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K23" t="n">
         <v>122.2961490211351</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T23" t="n">
-        <v>587.3248651012614</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U23" t="n">
-        <v>587.3248651012614</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V23" t="n">
-        <v>587.3248651012614</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W23" t="n">
-        <v>587.3248651012614</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X23" t="n">
-        <v>587.3248651012614</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y23" t="n">
-        <v>587.3248651012614</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="24">
@@ -6071,13 +6071,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>473.4149733950735</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N24" t="n">
         <v>473.4149733950735</v>
@@ -6092,25 +6092,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>933.9571464551993</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>933.9571464551993</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>933.9571464551993</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>705.7335281915883</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V24" t="n">
-        <v>470.5814199598456</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W24" t="n">
-        <v>227.1326433157456</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X24" t="n">
-        <v>19.28114311021272</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y24" t="n">
         <v>19.28114311021272</v>
@@ -6171,19 +6171,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
         <v>19.28114311021272</v>
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>231.8830517671884</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="C26" t="n">
-        <v>231.8830517671884</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="D26" t="n">
-        <v>231.8830517671884</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="E26" t="n">
-        <v>231.8830517671884</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="F26" t="n">
-        <v>231.8830517671884</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="G26" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H26" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6259,19 +6259,19 @@
         <v>376.1934816808115</v>
       </c>
       <c r="U26" t="n">
-        <v>231.8830517671884</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="V26" t="n">
-        <v>231.8830517671884</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="W26" t="n">
-        <v>231.8830517671884</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="X26" t="n">
-        <v>231.8830517671884</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="Y26" t="n">
-        <v>231.8830517671884</v>
+        <v>132.7447050367114</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>384.2867411876791</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>209.8337119065521</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>209.8337119065521</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>209.8337119065521</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>209.8337119065521</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>209.8337119065521</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6311,16 +6311,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N27" t="n">
-        <v>613.2059550252818</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P27" t="n">
         <v>894.6625969973069</v>
@@ -6329,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>862.8876260635219</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U27" t="n">
-        <v>862.8876260635219</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V27" t="n">
-        <v>627.7355178317791</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W27" t="n">
-        <v>384.2867411876791</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X27" t="n">
-        <v>384.2867411876791</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y27" t="n">
-        <v>384.2867411876791</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6414,13 +6414,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
         <v>19.28114311021272</v>
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>749.627473042513</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C29" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D29" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E29" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F29" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G29" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T29" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U29" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V29" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W29" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X29" t="n">
-        <v>749.627473042513</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y29" t="n">
-        <v>749.627473042513</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="30">
@@ -6548,19 +6548,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6572,22 +6572,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U30" t="n">
-        <v>735.8335372470253</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V30" t="n">
-        <v>500.6814290152826</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W30" t="n">
-        <v>257.2326523711826</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X30" t="n">
-        <v>49.38115216564972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y30" t="n">
-        <v>49.38115216564972</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="31">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
         <v>19.28114311021272</v>
@@ -6645,28 +6645,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C32" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6727,25 +6727,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S32" t="n">
-        <v>802.5825927271064</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T32" t="n">
-        <v>577.2332497330343</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U32" t="n">
-        <v>577.2332497330343</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W32" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X32" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y32" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="33">
@@ -6755,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>489.203140025706</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>314.750110744579</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
         <v>19.28114311021272</v>
@@ -6785,16 +6785,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N33" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
         <v>964.0571555106362</v>
@@ -6803,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U33" t="n">
-        <v>696.9634387906599</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V33" t="n">
-        <v>696.9634387906599</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W33" t="n">
-        <v>696.9634387906599</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X33" t="n">
-        <v>696.9634387906599</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y33" t="n">
-        <v>489.203140025706</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6894,7 +6894,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
         <v>19.28114311021272</v>
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C35" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X35" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y35" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>384.2867411876791</v>
+        <v>168.215552771464</v>
       </c>
       <c r="C36" t="n">
-        <v>384.2867411876791</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D36" t="n">
-        <v>384.2867411876791</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>384.2867411876791</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>237.752183214564</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>99.02135779717955</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7025,13 +7025,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>486.8488635328713</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N36" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7040,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>875.0400559109178</v>
       </c>
       <c r="T36" t="n">
-        <v>862.8876260635219</v>
+        <v>875.0400559109178</v>
       </c>
       <c r="U36" t="n">
-        <v>862.8876260635219</v>
+        <v>646.8164376473068</v>
       </c>
       <c r="V36" t="n">
-        <v>627.7355178317791</v>
+        <v>411.6643294155641</v>
       </c>
       <c r="W36" t="n">
-        <v>384.2867411876791</v>
+        <v>168.215552771464</v>
       </c>
       <c r="X36" t="n">
-        <v>384.2867411876791</v>
+        <v>168.215552771464</v>
       </c>
       <c r="Y36" t="n">
-        <v>384.2867411876791</v>
+        <v>168.215552771464</v>
       </c>
     </row>
     <row r="37">
@@ -7119,19 +7119,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
         <v>19.28114311021272</v>
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C38" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D38" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E38" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F38" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7207,19 +7207,19 @@
         <v>376.1934816808115</v>
       </c>
       <c r="U38" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="V38" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="W38" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X38" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>317.2409336147255</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C39" t="n">
-        <v>317.2409336147255</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D39" t="n">
-        <v>317.2409336147255</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E39" t="n">
-        <v>317.2409336147255</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F39" t="n">
-        <v>272.1352367728036</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G39" t="n">
-        <v>133.4044113554191</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
         <v>20.03527576299844</v>
@@ -7286,19 +7286,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>728.9050472788936</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W39" t="n">
-        <v>485.4562706347935</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X39" t="n">
-        <v>485.4562706347935</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y39" t="n">
-        <v>485.4562706347935</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="40">
@@ -7371,7 +7371,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
         <v>19.28114311021272</v>
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>749.627473042513</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C41" t="n">
-        <v>749.627473042513</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D41" t="n">
-        <v>749.627473042513</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E41" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F41" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7438,25 +7438,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T41" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U41" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V41" t="n">
-        <v>749.627473042513</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W41" t="n">
-        <v>749.627473042513</v>
+        <v>467.067986854209</v>
       </c>
       <c r="X41" t="n">
-        <v>749.627473042513</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y41" t="n">
-        <v>749.627473042513</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="42">
@@ -7466,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>194.4883050441255</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="C42" t="n">
-        <v>20.03527576299844</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="D42" t="n">
         <v>20.03527576299844</v>
@@ -7493,13 +7493,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N42" t="n">
         <v>725.4530095217538</v>
@@ -7520,22 +7520,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>873.9209987167903</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>645.6973804531794</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V42" t="n">
-        <v>645.6973804531794</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W42" t="n">
-        <v>402.2486038090794</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X42" t="n">
-        <v>402.2486038090794</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="Y42" t="n">
-        <v>194.4883050441255</v>
+        <v>168.9696854242497</v>
       </c>
     </row>
     <row r="43">
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F43" t="n">
         <v>19.28114311021272</v>
@@ -7608,13 +7608,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>82.32787816303323</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C44" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D44" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E44" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F44" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7660,40 +7660,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>725.2021500759371</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O44" t="n">
-        <v>874.3971002185851</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P44" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>964.057155510636</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>812.6742080953333</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S44" t="n">
-        <v>812.6742080953333</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T44" t="n">
-        <v>812.6742080953333</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U44" t="n">
-        <v>812.6742080953333</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="V44" t="n">
-        <v>569.2254314512332</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="W44" t="n">
-        <v>325.7766548071332</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X44" t="n">
-        <v>82.32787816303323</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y44" t="n">
-        <v>82.32787816303323</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>20.03527576299843</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="C45" t="n">
-        <v>20.03527576299843</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="D45" t="n">
-        <v>20.03527576299843</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="E45" t="n">
-        <v>20.03527576299843</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F45" t="n">
-        <v>20.03527576299843</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G45" t="n">
-        <v>20.03527576299843</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H45" t="n">
-        <v>20.03527576299843</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299843</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
@@ -7733,46 +7733,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363992</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>613.2059550252816</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N45" t="n">
-        <v>712.0191193839557</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O45" t="n">
-        <v>712.0191193839557</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973067</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>964.057155510636</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S45" t="n">
-        <v>964.057155510636</v>
+        <v>780.0938443926082</v>
       </c>
       <c r="T45" t="n">
-        <v>964.057155510636</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="U45" t="n">
-        <v>914.2479596093278</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="V45" t="n">
-        <v>679.0958513775852</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="W45" t="n">
-        <v>435.6470747334852</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="X45" t="n">
-        <v>227.7955745279523</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="Y45" t="n">
-        <v>20.03527576299843</v>
+        <v>577.9072497513741</v>
       </c>
     </row>
     <row r="46">
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8066,16 +8066,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>301.248502863135</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8303,19 +8303,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O6" t="n">
-        <v>242.4075215744184</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8774,13 +8774,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>233.2169876979182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O12" t="n">
         <v>383.6105333221035</v>
@@ -9245,22 +9245,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9482,13 +9482,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>312.04082470182</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N21" t="n">
         <v>131.3417120833333</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,16 +9719,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>241.9453110519923</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9959,19 +9959,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>173.111405903722</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>242.4075215744184</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10196,10 +10196,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N30" t="n">
         <v>131.3417120833333</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10433,19 +10433,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>292.5201795090609</v>
       </c>
       <c r="O33" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10673,16 +10673,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>255.5148970497678</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11150,7 +11150,7 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>371.3463732493024</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
@@ -11384,19 +11384,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996773</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>231.1529892133072</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22591,31 +22591,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>156.5945010984978</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>157.4457150350269</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22628,7 +22628,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>102.0599298405957</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22673,13 +22673,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -22688,10 +22688,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>70.35882518776063</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22707,7 +22707,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>288.3233546697745</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>292.2667739183906</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22834,7 +22834,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22849,7 +22849,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>145.2236497783945</v>
@@ -22874,19 +22874,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.2373682396495</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22928,10 +22928,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="7">
@@ -22992,7 +22992,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23020,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>170.4484560200385</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>302.2574731329353</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23065,10 +23065,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -23086,7 +23086,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>145.2236497783945</v>
@@ -23108,7 +23108,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>127.8460714905183</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -23153,7 +23153,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -23165,7 +23165,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>170.365719729939</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23241,10 +23241,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -23269,10 +23269,10 @@
         <v>140.9160811946027</v>
       </c>
       <c r="F11" t="n">
-        <v>165.8617568640524</v>
+        <v>322.4562579625502</v>
       </c>
       <c r="G11" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23302,19 +23302,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>173.9525530126116</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23345,22 +23345,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>78.20953462214727</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23390,19 +23390,19 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>142.630753465213</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23427,7 +23427,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>167.9909793584588</v>
@@ -23475,7 +23475,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23497,22 +23497,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
@@ -23539,25 +23539,25 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>128.6853625704253</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>125.4575720412377</v>
       </c>
       <c r="W14" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23621,13 +23621,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>29.41897557875012</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>170.2754303037659</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23636,7 +23636,7 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23655,7 +23655,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H16" t="n">
         <v>162.2271725074396</v>
@@ -23731,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>252.344814527994</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
@@ -23755,7 +23755,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23779,13 +23779,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
         <v>251.3456529078365</v>
@@ -23794,10 +23794,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>158.8955716431281</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23828,13 +23828,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>82.43643527161383</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23879,7 +23879,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="19">
@@ -23943,7 +23943,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23952,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23983,7 +23983,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24025,19 +24025,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>265.3359907678426</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>307.3148329761767</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24068,7 +24068,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24098,10 +24098,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>142.630753465213</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>54.73595870413436</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24113,7 +24113,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24174,7 +24174,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24189,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24208,7 +24208,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>312.8473232832599</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24217,16 +24217,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
-        <v>228.601695792694</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24250,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -24259,7 +24259,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
@@ -24274,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>70.35882518776062</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
@@ -24341,7 +24341,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24353,7 +24353,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24411,7 +24411,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24457,16 +24457,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>314.9231005625139</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24499,7 +24499,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>108.4783272933497</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24524,7 +24524,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24539,13 +24539,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>13.73162530579347</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24569,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>99.67031166394173</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24654,7 +24654,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
         <v>286.3190293564909</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24682,28 +24682,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24724,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -24742,13 +24742,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>286.8247010151207</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>345.7616595229184</v>
       </c>
     </row>
     <row r="30">
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>137.4807660112426</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24812,7 +24812,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24824,7 +24824,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>171.1123110561969</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H31" t="n">
         <v>162.2271725074396</v>
@@ -24885,7 +24885,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24922,7 +24922,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24934,7 +24934,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24976,10 +24976,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>257.4082506688596</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -24998,16 +24998,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25043,22 +25043,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>61.67643668084145</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>180.9561245870265</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -25134,10 +25134,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>170.4484560200386</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25162,13 +25162,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25198,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25207,16 +25207,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25238,25 +25238,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>34.03922302265717</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25280,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>83.55624250011657</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25374,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25414,7 +25414,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25447,7 +25447,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>139.0167266006028</v>
+        <v>150.9660159552153</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25469,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -25481,13 +25481,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>100.4145725198813</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
@@ -25526,19 +25526,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>187.3109724219401</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25611,10 +25611,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>192.3884445891959</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25651,7 +25651,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>6.725383157348119</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
@@ -25687,10 +25687,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25709,10 +25709,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -25760,22 +25760,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>110.9299334689142</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>118.392647926014</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25797,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G43" t="n">
         <v>167.9909793584588</v>
@@ -25848,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25867,7 +25867,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>302.8566240687152</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25879,7 +25879,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25888,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25909,28 +25909,28 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>160.9567151697601</v>
       </c>
       <c r="V44" t="n">
-        <v>86.73796959247591</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25952,16 +25952,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
@@ -25991,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>89.71732724963321</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>176.6302781386798</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>10.68069428326061</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408641</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408644</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408644</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408641</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>481865.9503408641</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="15">
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>99696.40351879937</v>
+      </c>
+      <c r="C2" t="n">
         <v>99696.40351879939</v>
       </c>
-      <c r="C2" t="n">
-        <v>99696.40351879936</v>
-      </c>
       <c r="D2" t="n">
-        <v>99696.40351879936</v>
+        <v>99696.4035187994</v>
       </c>
       <c r="E2" t="n">
         <v>99696.40351879936</v>
       </c>
       <c r="F2" t="n">
+        <v>99696.40351879934</v>
+      </c>
+      <c r="G2" t="n">
+        <v>99696.4035187994</v>
+      </c>
+      <c r="H2" t="n">
+        <v>99696.40351879934</v>
+      </c>
+      <c r="I2" t="n">
         <v>99696.40351879937</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
+        <v>99696.40351879939</v>
+      </c>
+      <c r="K2" t="n">
+        <v>99696.40351879939</v>
+      </c>
+      <c r="L2" t="n">
         <v>99696.40351879942</v>
       </c>
-      <c r="H2" t="n">
-        <v>99696.40351879939</v>
-      </c>
-      <c r="I2" t="n">
-        <v>99696.40351879939</v>
-      </c>
-      <c r="J2" t="n">
-        <v>99696.40351879934</v>
-      </c>
-      <c r="K2" t="n">
-        <v>99696.4035187994</v>
-      </c>
-      <c r="L2" t="n">
-        <v>99696.4035187994</v>
-      </c>
       <c r="M2" t="n">
-        <v>99696.40351879937</v>
+        <v>99696.40351879936</v>
       </c>
       <c r="N2" t="n">
         <v>99696.40351879939</v>
@@ -26355,7 +26355,7 @@
         <v>99696.4035187994</v>
       </c>
       <c r="P2" t="n">
-        <v>99696.40351879936</v>
+        <v>99696.40351879939</v>
       </c>
     </row>
     <row r="3">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-41751.83989425444</v>
+        <v>-30755.63033621804</v>
       </c>
       <c r="C6" t="n">
-        <v>39017.59163729326</v>
+        <v>50013.8011953297</v>
       </c>
       <c r="D6" t="n">
-        <v>39017.59163729326</v>
+        <v>50013.80119532972</v>
       </c>
       <c r="E6" t="n">
-        <v>72645.19163729325</v>
+        <v>83641.40119532967</v>
       </c>
       <c r="F6" t="n">
-        <v>72645.19163729326</v>
+        <v>83641.40119532966</v>
       </c>
       <c r="G6" t="n">
-        <v>72645.1916372933</v>
+        <v>83641.40119532972</v>
       </c>
       <c r="H6" t="n">
-        <v>72645.19163729328</v>
+        <v>83641.40119532966</v>
       </c>
       <c r="I6" t="n">
-        <v>72645.19163729328</v>
+        <v>83641.40119532969</v>
       </c>
       <c r="J6" t="n">
-        <v>9585.249038187012</v>
+        <v>20581.45859622347</v>
       </c>
       <c r="K6" t="n">
-        <v>72645.19163729329</v>
+        <v>83641.4011953297</v>
       </c>
       <c r="L6" t="n">
-        <v>72645.19163729329</v>
+        <v>83641.40119532973</v>
       </c>
       <c r="M6" t="n">
-        <v>72645.19163729326</v>
+        <v>83641.40119532967</v>
       </c>
       <c r="N6" t="n">
-        <v>72645.19163729328</v>
+        <v>83641.4011953297</v>
       </c>
       <c r="O6" t="n">
-        <v>72645.19163729329</v>
+        <v>83641.40119532972</v>
       </c>
       <c r="P6" t="n">
-        <v>72645.19163729325</v>
+        <v>83641.4011953297</v>
       </c>
     </row>
   </sheetData>
@@ -26831,7 +26831,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
   </sheetData>
@@ -34786,16 +34786,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>169.9067907798017</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35023,19 +35023,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
+        <v>113.3808631277494</v>
+      </c>
+      <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O6" t="n">
-        <v>99.8112771299739</v>
-      </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35424,7 +35424,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P11" t="n">
         <v>90.5657124162131</v>
@@ -35494,13 +35494,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O12" t="n">
         <v>241.0142888776591</v>
@@ -35655,7 +35655,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
         <v>207.9338608153932</v>
@@ -35965,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36202,13 +36202,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>169.9067907798017</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36220,7 +36220,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36679,19 +36679,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>70.09551364982758</v>
@@ -36916,10 +36916,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37153,19 +37153,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
+        <v>161.1784674257276</v>
+      </c>
+      <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O33" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37393,16 +37393,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>113.3808631277495</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
@@ -37870,7 +37870,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>240.0046611659691</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
@@ -38104,19 +38104,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>99.8112771299739</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
